--- a/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
+++ b/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhj32\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3F412-F44E-45E1-8558-4A3E5DD11317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F544423-A81C-49EE-93D9-D7A11E459E8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="0" windowWidth="15690" windowHeight="14685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MILESTONE" sheetId="2" r:id="rId1"/>
@@ -20,13 +20,22 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2_WBS'!$B$3:$J$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2_WBS'!$B$3:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MILESTONE!$A$1:$V$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -145,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
   <si>
     <t>END</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -559,6 +568,10 @@
   <si>
     <t>메이브레이커
 PROJECT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 기획서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1480,6 +1493,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1571,18 +1596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2014,72 +2027,72 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="90" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="96"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="102" t="s">
+      <c r="E3" s="112"/>
+      <c r="F3" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="99" t="s">
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102" t="s">
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="99" t="s">
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="101"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="105"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="112"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
@@ -2130,16 +2143,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="93">
+      <c r="B5" s="97">
         <v>1</v>
       </c>
       <c r="C5" s="43">
         <v>44440</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="35"/>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -2158,14 +2171,14 @@
       <c r="U5" s="34"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="94"/>
-      <c r="C6" s="96" t="s">
+      <c r="B6" s="98"/>
+      <c r="C6" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="116"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="38"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2184,12 +2197,12 @@
       <c r="U6" s="34"/>
     </row>
     <row r="7" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="94"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="117" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="118"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2208,12 +2221,12 @@
       <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="94"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="84" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2231,12 +2244,12 @@
       <c r="U8" s="34"/>
     </row>
     <row r="9" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="94"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="86" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="35"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -2255,12 +2268,12 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="94"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="88" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="89"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="35"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -2279,14 +2292,14 @@
       <c r="U10" s="34"/>
     </row>
     <row r="11" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="95"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="44">
         <v>44532</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="106"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="63"/>
@@ -2306,11 +2319,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:B11"/>
@@ -2324,6 +2332,11 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2341,10 +2354,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L51"/>
+  <dimension ref="B1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2431,12 +2444,12 @@
         <v>4</v>
       </c>
       <c r="I5" s="3">
-        <f>AVERAGE(I12,I17,I22,I42,I47,I51,I27)</f>
-        <v>3.333333333333333</v>
+        <f>AVERAGE(I12,I18,I23,I43,I48,I52,I28)</f>
+        <v>13.952380952380953</v>
       </c>
       <c r="J5" s="2">
-        <f>COUNTIF(J6:J51,"완료")</f>
-        <v>0</v>
+        <f>COUNTIF(J6:J52,"완료")</f>
+        <v>4</v>
       </c>
       <c r="L5" s="30"/>
     </row>
@@ -2482,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f t="shared" ref="J7:J20" si="0">IF(I7=100,"완료",IF(I7=0,"-","진행중"))</f>
+        <f t="shared" ref="J7:J21" si="0">IF(I7=100,"완료",IF(I7=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
@@ -2499,13 +2512,15 @@
       <c r="G8" s="7">
         <v>44454</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>44454</v>
+      </c>
       <c r="I8" s="41">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J8" s="42" t="str">
         <f>IF(I8=100,"완료",IF(I8=0,"-","진행중"))</f>
-        <v>진행중</v>
+        <v>완료</v>
       </c>
       <c r="L8" s="30"/>
     </row>
@@ -2580,11 +2595,11 @@
       <c r="H12" s="23"/>
       <c r="I12" s="17">
         <f>AVERAGE(I6:I11)</f>
-        <v>23.333333333333332</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="J12" s="14">
         <f>COUNTIF(J6:J11,"완료")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -2602,13 +2617,15 @@
       <c r="G13" s="7">
         <v>44454</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>44454</v>
+      </c>
       <c r="I13" s="18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>완료</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -2624,13 +2641,15 @@
       <c r="G14" s="7">
         <v>44458</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>44448</v>
+      </c>
       <c r="I14" s="18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>완료</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -2646,18 +2665,20 @@
       <c r="G15" s="7">
         <v>44458</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>44454</v>
+      </c>
       <c r="I15" s="41">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>완료</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="123"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="122"/>
+      <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="9"/>
@@ -2669,59 +2690,59 @@
         <v>44463</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="18">
-        <v>0</v>
-      </c>
-      <c r="J16" s="61" t="str">
-        <f t="shared" ref="J16" si="2">IF(I16=100,"완료",IF(I16=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="17">
-        <f>AVERAGE(I13:I16)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="14">
-        <f>COUNTIF(J13:J16,"완료")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="121" t="s">
+      <c r="I16" s="41">
+        <v>10</v>
+      </c>
+      <c r="J16" s="42" t="str">
+        <f>IF(I16=100,"완료",IF(I16=0,"-","진행중"))</f>
+        <v>진행중</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="123"/>
+      <c r="C17" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="7">
+        <v>44454</v>
+      </c>
+      <c r="G17" s="7">
+        <v>44472</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="18">
+        <v>20</v>
+      </c>
+      <c r="J17" s="61" t="str">
+        <f t="shared" ref="J17" si="2">IF(I17=100,"완료",IF(I17=0,"-","진행중"))</f>
+        <v>진행중</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="17">
+        <f>AVERAGE(I13:I17)</f>
+        <v>66</v>
+      </c>
+      <c r="J18" s="14">
+        <f>COUNTIF(J13:J17,"완료")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="7">
-        <v>44470</v>
-      </c>
-      <c r="G18" s="7">
-        <v>44512</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="122"/>
-      <c r="C19" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="11"/>
@@ -2742,11 +2763,11 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="122"/>
-      <c r="C20" s="27" t="s">
-        <v>18</v>
+      <c r="C20" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="7">
         <v>44470</v>
       </c>
@@ -2754,18 +2775,18 @@
         <v>44512</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="47">
+      <c r="I20" s="18">
         <v>0</v>
       </c>
-      <c r="J20" s="48" t="str">
+      <c r="J20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="123"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="27" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="13"/>
@@ -2779,56 +2800,56 @@
       <c r="I21" s="47">
         <v>0</v>
       </c>
-      <c r="J21" s="62" t="str">
-        <f t="shared" ref="J21" si="3">IF(I21=100,"완료",IF(I21=0,"-","진행중"))</f>
+      <c r="J21" s="48" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="22" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="17">
-        <f>AVERAGE(I18:I21)</f>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="123"/>
+      <c r="C22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="7">
+        <v>44470</v>
+      </c>
+      <c r="G22" s="7">
+        <v>44512</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="47">
         <v>0</v>
       </c>
-      <c r="J22" s="14">
-        <f>COUNTIF(J18:J21,"완료")</f>
+      <c r="J22" s="62" t="str">
+        <f t="shared" ref="J22" si="3">IF(I22=100,"완료",IF(I22=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="17">
+        <f>AVERAGE(I19:I22)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="121" t="s">
+      <c r="J23" s="14">
+        <f>COUNTIF(J19:J22,"완료")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="7">
-        <v>44501</v>
-      </c>
-      <c r="G23" s="7">
-        <v>44512</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="18">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="str">
-        <f t="shared" ref="J23:J26" si="4">IF(I23=100,"완료",IF(I23=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="122"/>
-      <c r="C24" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="11"/>
@@ -2843,28 +2864,34 @@
         <v>0</v>
       </c>
       <c r="J24" s="4" t="str">
+        <f t="shared" ref="J24:J27" si="4">IF(I24=100,"완료",IF(I24=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="122"/>
+      <c r="C25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="7">
+        <v>44501</v>
+      </c>
+      <c r="G25" s="7">
+        <v>44512</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="122"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="47">
-        <v>0</v>
-      </c>
-      <c r="J25" s="48" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-    </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="123"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="27"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13"/>
@@ -2874,78 +2901,72 @@
       <c r="I26" s="47">
         <v>0</v>
       </c>
-      <c r="J26" s="62" t="str">
+      <c r="J26" s="48" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="17">
-        <f>AVERAGE(I23:I26)</f>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="123"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="47">
         <v>0</v>
       </c>
-      <c r="J27" s="14">
-        <f>COUNTIF(J23:J26,"완료")</f>
+      <c r="J27" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="17">
+        <f>AVERAGE(I24:I27)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="128" t="s">
+      <c r="J28" s="14">
+        <f>COUNTIF(J24:J27,"완료")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="7">
-        <v>44481</v>
-      </c>
-      <c r="G28" s="7">
-        <v>44505</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="41">
-        <v>0</v>
-      </c>
-      <c r="J28" s="42" t="str">
-        <f t="shared" ref="J28:J41" si="5">IF(I28=100,"완료",IF(I28=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="128"/>
-      <c r="C29" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="11"/>
       <c r="F29" s="7">
-        <v>44459</v>
+        <v>44481</v>
       </c>
       <c r="G29" s="7">
-        <v>44489</v>
+        <v>44505</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="41">
         <v>0</v>
       </c>
       <c r="J29" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J29:J42" si="5">IF(I29=100,"완료",IF(I29=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="128"/>
       <c r="C30" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="11"/>
@@ -2967,7 +2988,7 @@
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="128"/>
       <c r="C31" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="11"/>
@@ -2989,34 +3010,34 @@
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="128"/>
       <c r="C32" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="40"/>
+      <c r="F32" s="7">
+        <v>44459</v>
+      </c>
+      <c r="G32" s="7">
+        <v>44489</v>
+      </c>
+      <c r="H32" s="7"/>
       <c r="I32" s="41">
         <v>0</v>
       </c>
-      <c r="J32" s="61" t="str">
+      <c r="J32" s="42" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="128"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="39" t="s">
-        <v>54</v>
-      </c>
+      <c r="C33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="39"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="7">
-        <v>44459</v>
-      </c>
-      <c r="G33" s="7">
-        <v>44489</v>
-      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="40"/>
       <c r="I33" s="41">
         <v>0</v>
@@ -3030,14 +3051,14 @@
       <c r="B34" s="128"/>
       <c r="C34" s="8"/>
       <c r="D34" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="7">
-        <v>44490</v>
+        <v>44459</v>
       </c>
       <c r="G34" s="7">
-        <v>44517</v>
+        <v>44489</v>
       </c>
       <c r="H34" s="40"/>
       <c r="I34" s="41">
@@ -3050,13 +3071,13 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="128"/>
-      <c r="C35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="39"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="E35" s="11"/>
       <c r="F35" s="7">
-        <v>44513</v>
+        <v>44490</v>
       </c>
       <c r="G35" s="7">
         <v>44517</v>
@@ -3073,12 +3094,16 @@
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="128"/>
       <c r="C36" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="F36" s="7">
+        <v>44513</v>
+      </c>
+      <c r="G36" s="7">
+        <v>44517</v>
+      </c>
       <c r="H36" s="40"/>
       <c r="I36" s="41">
         <v>0</v>
@@ -3090,18 +3115,14 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="128"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="39" t="s">
-        <v>51</v>
-      </c>
+      <c r="C37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="39"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="7">
-        <v>44490</v>
-      </c>
-      <c r="G37" s="7">
-        <v>44517</v>
-      </c>
-      <c r="H37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="41">
         <v>0</v>
       </c>
@@ -3114,7 +3135,7 @@
       <c r="B38" s="128"/>
       <c r="C38" s="8"/>
       <c r="D38" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="7">
@@ -3135,10 +3156,16 @@
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="128"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="39"/>
+      <c r="D39" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="E39" s="11"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="F39" s="7">
+        <v>44490</v>
+      </c>
+      <c r="G39" s="7">
+        <v>44517</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="41">
         <v>0</v>
@@ -3171,7 +3198,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="49"/>
+      <c r="H41" s="7"/>
       <c r="I41" s="41">
         <v>0</v>
       </c>
@@ -3180,136 +3207,130 @@
         <v>-</v>
       </c>
     </row>
-    <row r="42" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="17">
-        <f>AVERAGE(I28:I41)</f>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="128"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="41">
         <v>0</v>
       </c>
-      <c r="J42" s="14">
-        <f>COUNTIF(J28:J41,"완료")</f>
+      <c r="J42" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="17">
+        <f>AVERAGE(I29:I42)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="121" t="s">
+      <c r="J43" s="14">
+        <f>COUNTIF(J29:J42,"완료")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="7">
-        <v>44490</v>
-      </c>
-      <c r="G43" s="7">
-        <v>44515</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="18">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4" t="str">
-        <f>IF(I43=100,"완료",IF(I43=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="122"/>
-      <c r="C44" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="39"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="11"/>
       <c r="F44" s="7">
-        <v>44516</v>
+        <v>44490</v>
       </c>
       <c r="G44" s="7">
-        <v>44530</v>
+        <v>44515</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="18">
         <v>0</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="J44" s="4" t="str">
+        <f>IF(I44=100,"완료",IF(I44=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="122"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="9"/>
+      <c r="C45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="39"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="F45" s="7">
+        <v>44516</v>
+      </c>
+      <c r="G45" s="7">
+        <v>44530</v>
+      </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="18"/>
+      <c r="I45" s="18">
+        <v>0</v>
+      </c>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="123"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="39"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="11"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="18"/>
-      <c r="J46" s="61" t="str">
-        <f>IF(I46=100,"완료",IF(I46=0,"-","진행중"))</f>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="123"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="61" t="str">
+        <f>IF(I47=100,"완료",IF(I47=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="47" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="17">
-        <f>AVERAGE(I43:I46)</f>
+    <row r="48" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="17">
+        <f>AVERAGE(I44:I47)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="14">
-        <f>COUNTIF(J43:J46,"완료")</f>
+      <c r="J48" s="14">
+        <f>COUNTIF(J44:J47,"완료")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="121" t="s">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="7">
-        <v>44518</v>
-      </c>
-      <c r="G48" s="7">
-        <v>44521</v>
-      </c>
-      <c r="H48" s="40"/>
-      <c r="I48" s="41">
-        <v>0</v>
-      </c>
-      <c r="J48" s="61" t="str">
-        <f>IF(I48=100,"완료",IF(I48=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="122"/>
-      <c r="C49" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="11"/>
@@ -3329,17 +3350,17 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="123"/>
+      <c r="B50" s="122"/>
       <c r="C50" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="11"/>
       <c r="F50" s="7">
-        <v>44522</v>
+        <v>44518</v>
       </c>
       <c r="G50" s="7">
-        <v>44532</v>
+        <v>44521</v>
       </c>
       <c r="H50" s="40"/>
       <c r="I50" s="41">
@@ -3350,20 +3371,42 @@
         <v>-</v>
       </c>
     </row>
-    <row r="51" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="17">
-        <f>AVERAGE(I48:I50)</f>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="123"/>
+      <c r="C51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="7">
+        <v>44522</v>
+      </c>
+      <c r="G51" s="7">
+        <v>44532</v>
+      </c>
+      <c r="H51" s="40"/>
+      <c r="I51" s="41">
         <v>0</v>
       </c>
-      <c r="J51" s="14">
-        <f>COUNTIF(J48:J50,"완료")</f>
+      <c r="J51" s="61" t="str">
+        <f>IF(I51=100,"완료",IF(I51=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="17">
+        <f>AVERAGE(I49:I51)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="14">
+        <f>COUNTIF(J49:J51,"완료")</f>
         <v>0</v>
       </c>
     </row>
@@ -3371,16 +3414,16 @@
   <mergeCells count="12">
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B44:B47"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B3:D5"/>
-    <mergeCell ref="B28:B41"/>
+    <mergeCell ref="B29:B42"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B24:B27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J6:J10">
@@ -3388,27 +3431,27 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J15 J18:J20">
+  <conditionalFormatting sqref="J13:J16 J19:J21">
     <cfRule type="cellIs" dxfId="15" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:J45">
+  <conditionalFormatting sqref="J44:J46">
     <cfRule type="cellIs" dxfId="14" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
+  <conditionalFormatting sqref="J47">
     <cfRule type="cellIs" dxfId="13" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="J49">
     <cfRule type="cellIs" dxfId="12" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49:J50">
+  <conditionalFormatting sqref="J50:J51">
     <cfRule type="cellIs" dxfId="11" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3418,37 +3461,37 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J17">
     <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
+  <conditionalFormatting sqref="J22">
     <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:J36">
+  <conditionalFormatting sqref="J29:J37">
     <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
+  <conditionalFormatting sqref="J38">
     <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
+  <conditionalFormatting sqref="J39">
     <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
+  <conditionalFormatting sqref="J40">
     <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:J41">
+  <conditionalFormatting sqref="J41:J42">
     <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3458,12 +3501,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
+  <conditionalFormatting sqref="J27">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:J25">
+  <conditionalFormatting sqref="J24:J26">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3471,7 +3514,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J47" formula="1"/>
+    <ignoredError sqref="J48" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4418,12 +4461,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -4431,6 +4468,12 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K3:K5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
+++ b/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F544423-A81C-49EE-93D9-D7A11E459E8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3154F279-2E69-4FDE-B0C4-BFF461C64942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="0" windowWidth="15690" windowHeight="14685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="23235" windowHeight="14685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MILESTONE" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2_WBS'!$B$3:$J$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2_WBS'!$B$3:$J$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MILESTONE!$A$1:$V$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
   <si>
     <t>END</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -572,6 +572,26 @@
   </si>
   <si>
     <t>통합 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽/아트 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리깅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -873,7 +893,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1234,13 +1254,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1493,36 +1575,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,6 +1650,36 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1638,13 +1720,281 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2027,72 +2377,72 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="94" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="96"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="86"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="106" t="s">
+      <c r="E3" s="102"/>
+      <c r="F3" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="103" t="s">
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="106" t="s">
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="103" t="s">
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="105"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="95"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="116"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="114"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
@@ -2143,16 +2493,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="97">
+      <c r="B5" s="87">
         <v>1</v>
       </c>
       <c r="C5" s="43">
         <v>44440</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="118"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="35"/>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -2171,14 +2521,14 @@
       <c r="U5" s="34"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="98"/>
-      <c r="C6" s="100" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="85"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="38"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2197,12 +2547,12 @@
       <c r="U6" s="34"/>
     </row>
     <row r="7" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="98"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="86" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2221,12 +2571,12 @@
       <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="88" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="89"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2244,12 +2594,12 @@
       <c r="U8" s="34"/>
     </row>
     <row r="9" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="98"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="90" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="91"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="35"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -2268,12 +2618,12 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="92" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="93"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="35"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -2292,14 +2642,14 @@
       <c r="U10" s="34"/>
     </row>
     <row r="11" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="99"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="44">
         <v>44532</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="110"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="63"/>
@@ -2319,6 +2669,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:B11"/>
@@ -2335,8 +2687,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2354,10 +2704,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L52"/>
+  <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2444,11 +2794,11 @@
         <v>4</v>
       </c>
       <c r="I5" s="3">
-        <f>AVERAGE(I12,I18,I23,I43,I48,I52,I28)</f>
-        <v>13.952380952380953</v>
+        <f>AVERAGE(I12,I19,I24,I49,I54,I58,I34)</f>
+        <v>14.047619047619049</v>
       </c>
       <c r="J5" s="2">
-        <f>COUNTIF(J6:J52,"완료")</f>
+        <f>COUNTIF(J6:J58,"완료")</f>
         <v>4</v>
       </c>
       <c r="L5" s="30"/>
@@ -2495,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f t="shared" ref="J7:J21" si="0">IF(I7=100,"완료",IF(I7=0,"-","진행중"))</f>
+        <f t="shared" ref="J7:J22" si="0">IF(I7=100,"완료",IF(I7=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
@@ -2679,19 +3029,19 @@
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="122"/>
       <c r="C16" s="8" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="11"/>
       <c r="F16" s="7">
-        <v>44445</v>
+        <v>44459</v>
       </c>
       <c r="G16" s="7">
-        <v>44463</v>
+        <v>44469</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="41">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="J16" s="42" t="str">
         <f>IF(I16=100,"완료",IF(I16=0,"-","진행중"))</f>
@@ -2699,72 +3049,72 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="123"/>
-      <c r="C17" s="27" t="s">
-        <v>103</v>
+      <c r="B17" s="122"/>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="11"/>
       <c r="F17" s="7">
+        <v>44445</v>
+      </c>
+      <c r="G17" s="7">
+        <v>44463</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="41">
+        <v>10</v>
+      </c>
+      <c r="J17" s="42" t="str">
+        <f>IF(I17=100,"완료",IF(I17=0,"-","진행중"))</f>
+        <v>진행중</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="123"/>
+      <c r="C18" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7">
         <v>44454</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="7">
         <v>44472</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="18">
+      <c r="H18" s="7"/>
+      <c r="I18" s="18">
         <v>20</v>
       </c>
-      <c r="J17" s="61" t="str">
-        <f t="shared" ref="J17" si="2">IF(I17=100,"완료",IF(I17=0,"-","진행중"))</f>
+      <c r="J18" s="61" t="str">
+        <f t="shared" ref="J18" si="2">IF(I18=100,"완료",IF(I18=0,"-","진행중"))</f>
         <v>진행중</v>
       </c>
     </row>
-    <row r="18" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="17">
-        <f>AVERAGE(I13:I17)</f>
-        <v>66</v>
-      </c>
-      <c r="J18" s="14">
-        <f>COUNTIF(J13:J17,"완료")</f>
+    <row r="19" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="17">
+        <f>AVERAGE(I13:I18)</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="J19" s="14">
+        <f>COUNTIF(J13:J18,"완료")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="121" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="7">
-        <v>44470</v>
-      </c>
-      <c r="G19" s="7">
-        <v>44512</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="18">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="122"/>
-      <c r="C20" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11"/>
@@ -2785,11 +3135,11 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="122"/>
-      <c r="C21" s="27" t="s">
-        <v>18</v>
+      <c r="C21" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="13"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="7">
         <v>44470</v>
       </c>
@@ -2797,18 +3147,18 @@
         <v>44512</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="47">
+      <c r="I21" s="18">
         <v>0</v>
       </c>
-      <c r="J21" s="48" t="str">
+      <c r="J21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="123"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="27" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="13"/>
@@ -2822,293 +3172,288 @@
       <c r="I22" s="47">
         <v>0</v>
       </c>
-      <c r="J22" s="62" t="str">
-        <f t="shared" ref="J22" si="3">IF(I22=100,"완료",IF(I22=0,"-","진행중"))</f>
+      <c r="J22" s="48" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="17">
-        <f>AVERAGE(I19:I22)</f>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="123"/>
+      <c r="C23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="7">
+        <v>44470</v>
+      </c>
+      <c r="G23" s="7">
+        <v>44512</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="47">
         <v>0</v>
       </c>
-      <c r="J23" s="14">
-        <f>COUNTIF(J19:J22,"완료")</f>
+      <c r="J23" s="62" t="str">
+        <f t="shared" ref="J23" si="3">IF(I23=100,"완료",IF(I23=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="19"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="141">
+        <f>AVERAGE(I20:I23)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="121" t="s">
+      <c r="J24" s="142">
+        <f>COUNTIF(J20:J23,"완료")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="150" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="151"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="153">
+        <v>44478</v>
+      </c>
+      <c r="G25" s="153">
+        <v>44517</v>
+      </c>
+      <c r="H25" s="154"/>
+      <c r="I25" s="158">
+        <v>0</v>
+      </c>
+      <c r="J25" s="157" t="str">
+        <f>IF(I25=100,"완료",IF(I25=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="134"/>
+      <c r="C26" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="151"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="153">
+        <v>44478</v>
+      </c>
+      <c r="G26" s="153">
+        <v>44517</v>
+      </c>
+      <c r="H26" s="154"/>
+      <c r="I26" s="158">
+        <v>0</v>
+      </c>
+      <c r="J26" s="157" t="str">
+        <f>IF(I26=100,"완료",IF(I26=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="134"/>
+      <c r="C27" s="150" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="151"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="153">
+        <v>44478</v>
+      </c>
+      <c r="G27" s="153">
+        <v>44517</v>
+      </c>
+      <c r="H27" s="154"/>
+      <c r="I27" s="158">
+        <v>0</v>
+      </c>
+      <c r="J27" s="157" t="str">
+        <f>IF(I27=100,"완료",IF(I27=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="135"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="158">
+        <v>0</v>
+      </c>
+      <c r="J28" s="157" t="str">
+        <f>IF(I28=100,"완료",IF(I28=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="133"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148">
+        <f>AVERAGE(I25:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="149">
+        <f>COUNTIF(J25:J28,"완료")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="7">
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="7">
         <v>44501</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G30" s="7">
         <v>44512</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="18">
+      <c r="H30" s="7"/>
+      <c r="I30" s="18">
         <v>0</v>
       </c>
-      <c r="J24" s="4" t="str">
-        <f t="shared" ref="J24:J27" si="4">IF(I24=100,"완료",IF(I24=0,"-","진행중"))</f>
+      <c r="J30" s="4" t="str">
+        <f t="shared" ref="J30:J33" si="4">IF(I30=100,"완료",IF(I30=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="122"/>
-      <c r="C25" s="8" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="122"/>
+      <c r="C31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="7">
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="7">
         <v>44501</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G31" s="7">
         <v>44512</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="18">
+      <c r="H31" s="7"/>
+      <c r="I31" s="18">
         <v>0</v>
       </c>
-      <c r="J25" s="4" t="str">
+      <c r="J31" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="122"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="47">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="122"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="47">
         <v>0</v>
       </c>
-      <c r="J26" s="48" t="str">
+      <c r="J32" s="48" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="123"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="47">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="123"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="47">
         <v>0</v>
       </c>
-      <c r="J27" s="62" t="str">
+      <c r="J33" s="62" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
-    <row r="28" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="17">
-        <f>AVERAGE(I24:I27)</f>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="17">
+        <f>AVERAGE(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="14">
-        <f>COUNTIF(J24:J27,"완료")</f>
+      <c r="J34" s="14">
+        <f>COUNTIF(J30:J33,"완료")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="128" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="7">
-        <v>44481</v>
-      </c>
-      <c r="G29" s="7">
-        <v>44505</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="41">
-        <v>0</v>
-      </c>
-      <c r="J29" s="42" t="str">
-        <f t="shared" ref="J29:J42" si="5">IF(I29=100,"완료",IF(I29=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="128"/>
-      <c r="C30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="7">
-        <v>44459</v>
-      </c>
-      <c r="G30" s="7">
-        <v>44489</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="41">
-        <v>0</v>
-      </c>
-      <c r="J30" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="128"/>
-      <c r="C31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="7">
-        <v>44459</v>
-      </c>
-      <c r="G31" s="7">
-        <v>44489</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="41">
-        <v>0</v>
-      </c>
-      <c r="J31" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="128"/>
-      <c r="C32" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="7">
-        <v>44459</v>
-      </c>
-      <c r="G32" s="7">
-        <v>44489</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="41">
-        <v>0</v>
-      </c>
-      <c r="J32" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="128"/>
-      <c r="C33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41">
-        <v>0</v>
-      </c>
-      <c r="J33" s="61" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="128"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="7">
-        <v>44459</v>
-      </c>
-      <c r="G34" s="7">
-        <v>44489</v>
-      </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41">
-        <v>0</v>
-      </c>
-      <c r="J34" s="61" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="128"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="39" t="s">
-        <v>55</v>
-      </c>
+      <c r="D35" s="39"/>
       <c r="E35" s="11"/>
       <c r="F35" s="7">
-        <v>44490</v>
+        <v>44481</v>
       </c>
       <c r="G35" s="7">
-        <v>44517</v>
-      </c>
-      <c r="H35" s="40"/>
+        <v>44505</v>
+      </c>
+      <c r="H35" s="7"/>
       <c r="I35" s="41">
         <v>0</v>
       </c>
-      <c r="J35" s="61" t="str">
-        <f t="shared" si="5"/>
+      <c r="J35" s="42" t="str">
+        <f t="shared" ref="J35:J48" si="5">IF(I35=100,"완료",IF(I35=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="128"/>
       <c r="C36" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="11"/>
       <c r="F36" s="7">
-        <v>44513</v>
+        <v>44459</v>
       </c>
       <c r="G36" s="7">
-        <v>44517</v>
-      </c>
-      <c r="H36" s="40"/>
+        <v>44489</v>
+      </c>
+      <c r="H36" s="7"/>
       <c r="I36" s="41">
         <v>0</v>
       </c>
-      <c r="J36" s="61" t="str">
+      <c r="J36" s="42" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
@@ -3116,57 +3461,57 @@
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="128"/>
       <c r="C37" s="8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="40"/>
+      <c r="F37" s="7">
+        <v>44459</v>
+      </c>
+      <c r="G37" s="7">
+        <v>44489</v>
+      </c>
+      <c r="H37" s="7"/>
       <c r="I37" s="41">
         <v>0</v>
       </c>
-      <c r="J37" s="61" t="str">
+      <c r="J37" s="42" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="128"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="39" t="s">
-        <v>51</v>
-      </c>
+      <c r="C38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="39"/>
       <c r="E38" s="11"/>
       <c r="F38" s="7">
-        <v>44490</v>
+        <v>44459</v>
       </c>
       <c r="G38" s="7">
-        <v>44517</v>
+        <v>44489</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="41">
         <v>0</v>
       </c>
-      <c r="J38" s="61" t="str">
+      <c r="J38" s="42" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="128"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="39" t="s">
-        <v>52</v>
-      </c>
+      <c r="C39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="39"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="7">
-        <v>44490</v>
-      </c>
-      <c r="G39" s="7">
-        <v>44517</v>
-      </c>
-      <c r="H39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="41">
         <v>0</v>
       </c>
@@ -3178,11 +3523,17 @@
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="128"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="39"/>
+      <c r="D40" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="E40" s="11"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="F40" s="7">
+        <v>44459</v>
+      </c>
+      <c r="G40" s="7">
+        <v>44489</v>
+      </c>
+      <c r="H40" s="40"/>
       <c r="I40" s="41">
         <v>0</v>
       </c>
@@ -3194,11 +3545,17 @@
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="128"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="39"/>
+      <c r="D41" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="E41" s="11"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="F41" s="7">
+        <v>44490</v>
+      </c>
+      <c r="G41" s="7">
+        <v>44517</v>
+      </c>
+      <c r="H41" s="40"/>
       <c r="I41" s="41">
         <v>0</v>
       </c>
@@ -3209,12 +3566,18 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="128"/>
-      <c r="C42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="D42" s="39"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="49"/>
+      <c r="F42" s="7">
+        <v>44513</v>
+      </c>
+      <c r="G42" s="7">
+        <v>44517</v>
+      </c>
+      <c r="H42" s="40"/>
       <c r="I42" s="41">
         <v>0</v>
       </c>
@@ -3223,298 +3586,409 @@
         <v>-</v>
       </c>
     </row>
-    <row r="43" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="17">
-        <f>AVERAGE(I29:I42)</f>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="128"/>
+      <c r="C43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41">
         <v>0</v>
       </c>
-      <c r="J43" s="14">
-        <f>COUNTIF(J29:J42,"완료")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="9"/>
+      <c r="J43" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="128"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="E44" s="11"/>
       <c r="F44" s="7">
         <v>44490</v>
       </c>
       <c r="G44" s="7">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="H44" s="7"/>
-      <c r="I44" s="18">
+      <c r="I44" s="41">
         <v>0</v>
       </c>
-      <c r="J44" s="4" t="str">
-        <f>IF(I44=100,"완료",IF(I44=0,"-","진행중"))</f>
+      <c r="J44" s="61" t="str">
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="122"/>
-      <c r="C45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="39"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="E45" s="11"/>
       <c r="F45" s="7">
-        <v>44516</v>
+        <v>44490</v>
       </c>
       <c r="G45" s="7">
-        <v>44530</v>
+        <v>44517</v>
       </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="18">
+      <c r="I45" s="41">
         <v>0</v>
       </c>
-      <c r="J45" s="4"/>
+      <c r="J45" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="122"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="39"/>
       <c r="E46" s="11"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="4"/>
+      <c r="I46" s="41">
+        <v>0</v>
+      </c>
+      <c r="J46" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="123"/>
-      <c r="C47" s="5"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="39"/>
       <c r="E47" s="11"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="18"/>
+      <c r="I47" s="41">
+        <v>0</v>
+      </c>
       <c r="J47" s="61" t="str">
-        <f>IF(I47=100,"완료",IF(I47=0,"-","진행중"))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
     </row>
-    <row r="48" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="17">
-        <f>AVERAGE(I44:I47)</f>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="128"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="41">
         <v>0</v>
       </c>
-      <c r="J48" s="14">
-        <f>COUNTIF(J44:J47,"완료")</f>
+      <c r="J48" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="17">
+        <f>AVERAGE(I35:I48)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="7">
-        <v>44518</v>
-      </c>
-      <c r="G49" s="7">
-        <v>44521</v>
-      </c>
-      <c r="H49" s="40"/>
-      <c r="I49" s="41">
+      <c r="J49" s="14">
+        <f>COUNTIF(J35:J48,"완료")</f>
         <v>0</v>
       </c>
-      <c r="J49" s="61" t="str">
-        <f>IF(I49=100,"완료",IF(I49=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="122"/>
+      <c r="B50" s="121" t="s">
+        <v>46</v>
+      </c>
       <c r="C50" s="5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="11"/>
       <c r="F50" s="7">
-        <v>44518</v>
+        <v>44490</v>
       </c>
       <c r="G50" s="7">
-        <v>44521</v>
-      </c>
-      <c r="H50" s="40"/>
-      <c r="I50" s="41">
+        <v>44515</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="18">
         <v>0</v>
       </c>
-      <c r="J50" s="61" t="str">
+      <c r="J50" s="4" t="str">
         <f>IF(I50=100,"완료",IF(I50=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="123"/>
+      <c r="B51" s="122"/>
       <c r="C51" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="D51" s="39"/>
       <c r="E51" s="11"/>
       <c r="F51" s="7">
+        <v>44516</v>
+      </c>
+      <c r="G51" s="7">
+        <v>44530</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="18">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="122"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="2:10" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B53" s="123"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="61" t="str">
+        <f>IF(I53=100,"완료",IF(I53=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="17">
+        <f>AVERAGE(I50:I53)</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="14">
+        <f>COUNTIF(J50:J53,"완료")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="7">
+        <v>44518</v>
+      </c>
+      <c r="G55" s="7">
+        <v>44521</v>
+      </c>
+      <c r="H55" s="40"/>
+      <c r="I55" s="41">
+        <v>0</v>
+      </c>
+      <c r="J55" s="61" t="str">
+        <f>IF(I55=100,"완료",IF(I55=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="122"/>
+      <c r="C56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="7">
+        <v>44518</v>
+      </c>
+      <c r="G56" s="7">
+        <v>44521</v>
+      </c>
+      <c r="H56" s="40"/>
+      <c r="I56" s="41">
+        <v>0</v>
+      </c>
+      <c r="J56" s="61" t="str">
+        <f>IF(I56=100,"완료",IF(I56=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="123"/>
+      <c r="C57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="7">
         <v>44522</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G57" s="7">
         <v>44532</v>
       </c>
-      <c r="H51" s="40"/>
-      <c r="I51" s="41">
+      <c r="H57" s="40"/>
+      <c r="I57" s="41">
         <v>0</v>
       </c>
-      <c r="J51" s="61" t="str">
-        <f>IF(I51=100,"완료",IF(I51=0,"-","진행중"))</f>
+      <c r="J57" s="61" t="str">
+        <f>IF(I57=100,"완료",IF(I57=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="52" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="17">
-        <f>AVERAGE(I49:I51)</f>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="17">
+        <f>AVERAGE(I55:I57)</f>
         <v>0</v>
       </c>
-      <c r="J52" s="14">
-        <f>COUNTIF(J49:J51,"완료")</f>
+      <c r="J58" s="14">
+        <f>COUNTIF(J55:J57,"완료")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B50:B53"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B3:D5"/>
-    <mergeCell ref="B29:B42"/>
+    <mergeCell ref="B35:B48"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J6:J10">
-    <cfRule type="cellIs" dxfId="16" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J16 J19:J21">
-    <cfRule type="cellIs" dxfId="15" priority="47" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J13:J17 J20:J22">
+    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:J46">
-    <cfRule type="cellIs" dxfId="14" priority="37" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J50:J52">
+    <cfRule type="cellIs" dxfId="52" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" dxfId="13" priority="35" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J53">
+    <cfRule type="cellIs" dxfId="51" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="12" priority="31" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J55">
+    <cfRule type="cellIs" dxfId="50" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50:J51">
-    <cfRule type="cellIs" dxfId="11" priority="29" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J56:J57">
+    <cfRule type="cellIs" dxfId="49" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="10" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="cellIs" dxfId="47" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" dxfId="46" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J37">
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J35:J43">
+    <cfRule type="cellIs" dxfId="45" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J44">
+    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J45">
+    <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J46">
+    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:J42">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J47:J48">
+    <cfRule type="cellIs" dxfId="41" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J33">
+    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J26">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J30:J32">
+    <cfRule type="cellIs" dxfId="38" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J48" formula="1"/>
+    <ignoredError sqref="J54" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4461,6 +4935,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -4468,12 +4948,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K3:K5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
+++ b/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\WBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhj32\Desktop\Contests_Capston\Git_ContentsIT_Capston_Design\docs\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3154F279-2E69-4FDE-B0C4-BFF461C64942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB125A57-F1D0-4B8D-ABB0-87E8D9D03ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="23235" windowHeight="14685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="3810" windowWidth="27105" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MILESTONE" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2_WBS'!$B$3:$J$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2_WBS'!$B$3:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MILESTONE!$A$1:$V$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -154,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="109">
   <si>
     <t>END</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1575,6 +1573,90 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1668,25 +1750,19 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,281 +1796,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2377,72 +2185,72 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="84" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="86"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="114"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="96" t="s">
+      <c r="E3" s="130"/>
+      <c r="F3" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="93" t="s">
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96" t="s">
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="93" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="95"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="123"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="106"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="104"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
       <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
@@ -2493,16 +2301,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="87">
+      <c r="B5" s="115">
         <v>1</v>
       </c>
       <c r="C5" s="43">
         <v>44440</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="108"/>
+      <c r="E5" s="136"/>
       <c r="F5" s="35"/>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -2521,14 +2329,14 @@
       <c r="U5" s="34"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="88"/>
-      <c r="C6" s="90" t="s">
+      <c r="B6" s="116"/>
+      <c r="C6" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="110"/>
+      <c r="E6" s="138"/>
       <c r="F6" s="38"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2547,12 +2355,12 @@
       <c r="U6" s="34"/>
     </row>
     <row r="7" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="88"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="111" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="112"/>
+      <c r="E7" s="140"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2571,12 +2379,12 @@
       <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="88"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="113" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="114"/>
+      <c r="E8" s="142"/>
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2594,12 +2402,12 @@
       <c r="U8" s="34"/>
     </row>
     <row r="9" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="88"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="115" t="s">
+      <c r="B9" s="116"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="116"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="35"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -2618,12 +2426,12 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="88"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="117" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="118"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="35"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -2642,14 +2450,14 @@
       <c r="U10" s="34"/>
     </row>
     <row r="11" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="89"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="44">
         <v>44532</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="100"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="63"/>
@@ -2669,6 +2477,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F2:U2"/>
@@ -2685,8 +2495,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2704,10 +2512,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L58"/>
+  <dimension ref="B1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2724,54 +2532,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
     </row>
     <row r="2" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
       <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2780,9 +2588,9 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
       <c r="E5" s="10"/>
       <c r="F5" s="1" t="s">
         <v>3</v>
@@ -2794,17 +2602,17 @@
         <v>4</v>
       </c>
       <c r="I5" s="3">
-        <f>AVERAGE(I12,I19,I24,I49,I54,I58,I34)</f>
-        <v>14.047619047619049</v>
+        <f>AVERAGE(I11,I18,I23,I48,I53,I57,I33)</f>
+        <v>15.30952380952381</v>
       </c>
       <c r="J5" s="2">
-        <f>COUNTIF(J6:J58,"완료")</f>
+        <f>COUNTIF(J6:J57,"완료")</f>
         <v>4</v>
       </c>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="121" t="s">
+    <row r="6" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="143" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2827,137 +2635,139 @@
         <v>진행중</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="122"/>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
+    <row r="7" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="148"/>
+      <c r="C7" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="11"/>
       <c r="F7" s="7">
-        <v>44452</v>
+        <v>44445</v>
       </c>
       <c r="G7" s="7">
-        <v>44463</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f t="shared" ref="J7:J22" si="0">IF(I7=100,"완료",IF(I7=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="122"/>
+        <v>44454</v>
+      </c>
+      <c r="H7" s="7">
+        <v>44454</v>
+      </c>
+      <c r="I7" s="41">
+        <v>100</v>
+      </c>
+      <c r="J7" s="42" t="str">
+        <f>IF(I7=100,"완료",IF(I7=0,"-","진행중"))</f>
+        <v>완료</v>
+      </c>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="148"/>
       <c r="C8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="D8" s="39"/>
       <c r="E8" s="11"/>
       <c r="F8" s="7">
-        <v>44445</v>
+        <v>44474</v>
       </c>
       <c r="G8" s="7">
-        <v>44454</v>
-      </c>
-      <c r="H8" s="7">
-        <v>44454</v>
-      </c>
+        <v>44481</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="41">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="42" t="str">
-        <f>IF(I8=100,"완료",IF(I8=0,"-","진행중"))</f>
-        <v>완료</v>
+        <f t="shared" ref="J8:J21" si="0">IF(I8=100,"완료",IF(I8=0,"-","진행중"))</f>
+        <v>-</v>
       </c>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="122"/>
-      <c r="C9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="11"/>
+    <row r="9" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="148"/>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="7">
-        <v>44474</v>
+        <v>44522</v>
       </c>
       <c r="G9" s="7">
-        <v>44481</v>
+        <v>44532</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="41">
+      <c r="I9" s="18">
         <v>0</v>
       </c>
-      <c r="J9" s="42" t="str">
+      <c r="J9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="L9" s="30"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="122"/>
-      <c r="C10" s="5" t="s">
-        <v>65</v>
-      </c>
+    </row>
+    <row r="10" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="149"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="28"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="7">
-        <v>44522</v>
-      </c>
-      <c r="G10" s="7">
-        <v>44532</v>
-      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="18">
+      <c r="I10" s="41">
         <v>0</v>
       </c>
-      <c r="J10" s="4" t="str">
+      <c r="J10" s="42" t="str">
+        <f t="shared" ref="J10" si="1">IF(I10=100,"완료",IF(I10=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="17">
+        <f>AVERAGE(I6:I10)</f>
+        <v>38</v>
+      </c>
+      <c r="J11" s="14">
+        <f>COUNTIF(J6:J10,"완료")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="143" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7">
+        <v>44440</v>
+      </c>
+      <c r="G12" s="7">
+        <v>44454</v>
+      </c>
+      <c r="H12" s="7">
+        <v>44454</v>
+      </c>
+      <c r="I12" s="18">
+        <v>100</v>
+      </c>
+      <c r="J12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="123"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="41">
-        <v>0</v>
-      </c>
-      <c r="J11" s="42" t="str">
-        <f t="shared" ref="J11" si="1">IF(I11=100,"완료",IF(I11=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="17">
-        <f>AVERAGE(I6:I11)</f>
-        <v>31.666666666666668</v>
-      </c>
-      <c r="J12" s="14">
-        <f>COUNTIF(J6:J11,"완료")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="121" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>44</v>
+        <v>완료</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="148"/>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="11"/>
@@ -2965,10 +2775,10 @@
         <v>44440</v>
       </c>
       <c r="G13" s="7">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="H13" s="7">
-        <v>44454</v>
+        <v>44448</v>
       </c>
       <c r="I13" s="18">
         <v>100</v>
@@ -2978,143 +2788,141 @@
         <v>완료</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="122"/>
+    <row r="14" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="148"/>
       <c r="C14" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11"/>
       <c r="F14" s="7">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="G14" s="7">
         <v>44458</v>
       </c>
       <c r="H14" s="7">
-        <v>44448</v>
-      </c>
-      <c r="I14" s="18">
+        <v>44454</v>
+      </c>
+      <c r="I14" s="41">
         <v>100</v>
       </c>
-      <c r="J14" s="4" t="str">
+      <c r="J14" s="42" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="122"/>
+    <row r="15" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="148"/>
       <c r="C15" s="8" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11"/>
       <c r="F15" s="7">
-        <v>44445</v>
+        <v>44459</v>
       </c>
       <c r="G15" s="7">
-        <v>44458</v>
-      </c>
-      <c r="H15" s="7">
-        <v>44454</v>
-      </c>
+        <v>44469</v>
+      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="41">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J15" s="42" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="122"/>
+        <f>IF(I15=100,"완료",IF(I15=0,"-","진행중"))</f>
+        <v>진행중</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="148"/>
       <c r="C16" s="8" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="11"/>
       <c r="F16" s="7">
-        <v>44459</v>
+        <v>44445</v>
       </c>
       <c r="G16" s="7">
-        <v>44469</v>
+        <v>44463</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="41">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="J16" s="42" t="str">
         <f>IF(I16=100,"완료",IF(I16=0,"-","진행중"))</f>
         <v>진행중</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="122"/>
-      <c r="C17" s="8" t="s">
-        <v>45</v>
+    <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="149"/>
+      <c r="C17" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="11"/>
       <c r="F17" s="7">
-        <v>44445</v>
+        <v>44454</v>
       </c>
       <c r="G17" s="7">
-        <v>44463</v>
+        <v>44472</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="41">
-        <v>10</v>
-      </c>
-      <c r="J17" s="42" t="str">
-        <f>IF(I17=100,"완료",IF(I17=0,"-","진행중"))</f>
+      <c r="I17" s="18">
+        <v>20</v>
+      </c>
+      <c r="J17" s="61" t="str">
+        <f t="shared" ref="J17" si="2">IF(I17=100,"완료",IF(I17=0,"-","진행중"))</f>
         <v>진행중</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="123"/>
-      <c r="C18" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="7">
-        <v>44454</v>
-      </c>
-      <c r="G18" s="7">
-        <v>44472</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="18">
-        <v>20</v>
-      </c>
-      <c r="J18" s="61" t="str">
-        <f t="shared" ref="J18" si="2">IF(I18=100,"완료",IF(I18=0,"-","진행중"))</f>
-        <v>진행중</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="17">
-        <f>AVERAGE(I13:I18)</f>
+    <row r="18" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="17">
+        <f>AVERAGE(I12:I17)</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="J19" s="14">
-        <f>COUNTIF(J13:J18,"완료")</f>
+      <c r="J18" s="14">
+        <f>COUNTIF(J12:J17,"완료")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="121" t="s">
+    <row r="19" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="143" t="s">
         <v>38</v>
       </c>
+      <c r="C19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="7">
+        <v>44470</v>
+      </c>
+      <c r="G19" s="7">
+        <v>44512</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="148"/>
       <c r="C20" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11"/>
@@ -3133,13 +2941,13 @@
         <v>-</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="122"/>
-      <c r="C21" s="8" t="s">
-        <v>39</v>
+    <row r="21" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="148"/>
+      <c r="C21" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="7">
         <v>44470</v>
       </c>
@@ -3147,18 +2955,18 @@
         <v>44512</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="18">
+      <c r="I21" s="47">
         <v>0</v>
       </c>
-      <c r="J21" s="4" t="str">
+      <c r="J21" s="48" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="122"/>
+    <row r="22" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="149"/>
       <c r="C22" s="27" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="13"/>
@@ -3172,157 +2980,157 @@
       <c r="I22" s="47">
         <v>0</v>
       </c>
-      <c r="J22" s="48" t="str">
-        <f t="shared" si="0"/>
+      <c r="J22" s="62" t="str">
+        <f t="shared" ref="J22" si="3">IF(I22=100,"완료",IF(I22=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="123"/>
-      <c r="C23" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="7">
-        <v>44470</v>
-      </c>
-      <c r="G23" s="7">
-        <v>44512</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="47">
+    <row r="23" spans="2:10" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="90">
+        <f>AVERAGE(I19:I22)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="62" t="str">
-        <f t="shared" ref="J23" si="3">IF(I23=100,"완료",IF(I23=0,"-","진행중"))</f>
+      <c r="J23" s="91">
+        <f>COUNTIF(J19:J22,"완료")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="143" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="102">
+        <v>44478</v>
+      </c>
+      <c r="G24" s="102">
+        <v>44517</v>
+      </c>
+      <c r="H24" s="103"/>
+      <c r="I24" s="107">
+        <v>0</v>
+      </c>
+      <c r="J24" s="106" t="str">
+        <f>IF(I24=100,"완료",IF(I24=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="141">
-        <f>AVERAGE(I20:I23)</f>
+    <row r="25" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="144"/>
+      <c r="C25" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="100"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="102">
+        <v>44478</v>
+      </c>
+      <c r="G25" s="102">
+        <v>44517</v>
+      </c>
+      <c r="H25" s="103"/>
+      <c r="I25" s="107">
         <v>0</v>
       </c>
-      <c r="J24" s="142">
-        <f>COUNTIF(J20:J23,"완료")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="150" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="151"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="153">
-        <v>44478</v>
-      </c>
-      <c r="G25" s="153">
-        <v>44517</v>
-      </c>
-      <c r="H25" s="154"/>
-      <c r="I25" s="158">
-        <v>0</v>
-      </c>
-      <c r="J25" s="157" t="str">
+      <c r="J25" s="106" t="str">
         <f>IF(I25=100,"완료",IF(I25=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="134"/>
-      <c r="C26" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="153">
+    <row r="26" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="144"/>
+      <c r="C26" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="100"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="102">
         <v>44478</v>
       </c>
-      <c r="G26" s="153">
+      <c r="G26" s="102">
         <v>44517</v>
       </c>
-      <c r="H26" s="154"/>
-      <c r="I26" s="158">
+      <c r="H26" s="103"/>
+      <c r="I26" s="107">
         <v>0</v>
       </c>
-      <c r="J26" s="157" t="str">
+      <c r="J26" s="106" t="str">
         <f>IF(I26=100,"완료",IF(I26=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="134"/>
-      <c r="C27" s="150" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="153">
-        <v>44478</v>
-      </c>
-      <c r="G27" s="153">
-        <v>44517</v>
-      </c>
-      <c r="H27" s="154"/>
-      <c r="I27" s="158">
+    <row r="27" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="145"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="107">
         <v>0</v>
       </c>
-      <c r="J27" s="157" t="str">
+      <c r="J27" s="106" t="str">
         <f>IF(I27=100,"완료",IF(I27=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="135"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="158">
+    <row r="28" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="84"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="97">
+        <f>AVERAGE(I24:I27)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="157" t="str">
-        <f>IF(I28=100,"완료",IF(I28=0,"-","진행중"))</f>
+      <c r="J28" s="98">
+        <f>COUNTIF(J24:J27,"완료")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="143" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="7">
+        <v>44501</v>
+      </c>
+      <c r="G29" s="7">
+        <v>44512</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="18">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="str">
+        <f t="shared" ref="J29:J32" si="4">IF(I29=100,"완료",IF(I29=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="29" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="133"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="148">
-        <f>AVERAGE(I25:I28)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="149">
-        <f>COUNTIF(J25:J28,"완료")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="121" t="s">
-        <v>41</v>
-      </c>
+    <row r="30" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="148"/>
       <c r="C30" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="11"/>
@@ -3337,34 +3145,28 @@
         <v>0</v>
       </c>
       <c r="J30" s="4" t="str">
-        <f t="shared" ref="J30:J33" si="4">IF(I30=100,"완료",IF(I30=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="122"/>
-      <c r="C31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="7">
-        <v>44501</v>
-      </c>
-      <c r="G31" s="7">
-        <v>44512</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="18">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="122"/>
+    <row r="31" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="148"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="47">
+        <v>0</v>
+      </c>
+      <c r="J31" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="149"/>
       <c r="C32" s="27"/>
       <c r="D32" s="9"/>
       <c r="E32" s="13"/>
@@ -3374,72 +3176,78 @@
       <c r="I32" s="47">
         <v>0</v>
       </c>
-      <c r="J32" s="48" t="str">
+      <c r="J32" s="62" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="123"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="47">
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="17">
+        <f>AVERAGE(I29:I32)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="62" t="str">
-        <f t="shared" si="4"/>
+      <c r="J33" s="14">
+        <f>COUNTIF(J29:J32,"완료")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="7">
+        <v>44481</v>
+      </c>
+      <c r="G34" s="7">
+        <v>44505</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="41">
+        <v>0</v>
+      </c>
+      <c r="J34" s="42" t="str">
+        <f t="shared" ref="J34:J47" si="5">IF(I34=100,"완료",IF(I34=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="17">
-        <f>AVERAGE(I30:I33)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="14">
-        <f>COUNTIF(J30:J33,"완료")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="128" t="s">
-        <v>6</v>
-      </c>
+    <row r="35" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="154"/>
       <c r="C35" s="8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="11"/>
       <c r="F35" s="7">
-        <v>44481</v>
+        <v>44459</v>
       </c>
       <c r="G35" s="7">
-        <v>44505</v>
+        <v>44489</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J35" s="42" t="str">
-        <f t="shared" ref="J35:J48" si="5">IF(I35=100,"완료",IF(I35=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="128"/>
+        <f t="shared" si="5"/>
+        <v>진행중</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="154"/>
       <c r="C36" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="11"/>
@@ -3458,10 +3266,10 @@
         <v>-</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="128"/>
+    <row r="37" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="154"/>
       <c r="C37" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="11"/>
@@ -3473,44 +3281,44 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="41">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J37" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="128"/>
+        <v>진행중</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="154"/>
       <c r="C38" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="7">
-        <v>44459</v>
-      </c>
-      <c r="G38" s="7">
-        <v>44489</v>
-      </c>
-      <c r="H38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="41">
         <v>0</v>
       </c>
-      <c r="J38" s="42" t="str">
+      <c r="J38" s="61" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="128"/>
-      <c r="C39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="39"/>
+    <row r="39" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="154"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="E39" s="11"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="F39" s="7">
+        <v>44459</v>
+      </c>
+      <c r="G39" s="7">
+        <v>44489</v>
+      </c>
       <c r="H39" s="40"/>
       <c r="I39" s="41">
         <v>0</v>
@@ -3520,18 +3328,18 @@
         <v>-</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="128"/>
+    <row r="40" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="154"/>
       <c r="C40" s="8"/>
       <c r="D40" s="39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="7">
-        <v>44459</v>
+        <v>44490</v>
       </c>
       <c r="G40" s="7">
-        <v>44489</v>
+        <v>44517</v>
       </c>
       <c r="H40" s="40"/>
       <c r="I40" s="41">
@@ -3542,15 +3350,15 @@
         <v>-</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="128"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="39" t="s">
-        <v>55</v>
-      </c>
+    <row r="41" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="154"/>
+      <c r="C41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="39"/>
       <c r="E41" s="11"/>
       <c r="F41" s="7">
-        <v>44490</v>
+        <v>44513</v>
       </c>
       <c r="G41" s="7">
         <v>44517</v>
@@ -3564,19 +3372,15 @@
         <v>-</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="128"/>
+    <row r="42" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="154"/>
       <c r="C42" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="7">
-        <v>44513</v>
-      </c>
-      <c r="G42" s="7">
-        <v>44517</v>
-      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="40"/>
       <c r="I42" s="41">
         <v>0</v>
@@ -3586,16 +3390,20 @@
         <v>-</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="128"/>
-      <c r="C43" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="39"/>
+    <row r="43" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="154"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="E43" s="11"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="40"/>
+      <c r="F43" s="7">
+        <v>44490</v>
+      </c>
+      <c r="G43" s="7">
+        <v>44517</v>
+      </c>
+      <c r="H43" s="7"/>
       <c r="I43" s="41">
         <v>0</v>
       </c>
@@ -3604,11 +3412,11 @@
         <v>-</v>
       </c>
     </row>
-    <row r="44" spans="2:10" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B44" s="128"/>
+    <row r="44" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="154"/>
       <c r="C44" s="8"/>
       <c r="D44" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="7">
@@ -3626,19 +3434,13 @@
         <v>-</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="128"/>
+    <row r="45" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="154"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="39" t="s">
-        <v>52</v>
-      </c>
+      <c r="D45" s="39"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="7">
-        <v>44490</v>
-      </c>
-      <c r="G45" s="7">
-        <v>44517</v>
-      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="41">
         <v>0</v>
@@ -3648,8 +3450,8 @@
         <v>-</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="128"/>
+    <row r="46" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="154"/>
       <c r="C46" s="8"/>
       <c r="D46" s="39"/>
       <c r="E46" s="11"/>
@@ -3664,14 +3466,14 @@
         <v>-</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="128"/>
+    <row r="47" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="154"/>
       <c r="C47" s="8"/>
       <c r="D47" s="39"/>
       <c r="E47" s="11"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="49"/>
       <c r="I47" s="41">
         <v>0</v>
       </c>
@@ -3680,130 +3482,136 @@
         <v>-</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="128"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="41">
+    <row r="48" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="17">
+        <f>AVERAGE(I34:I47)</f>
+        <v>2.5</v>
+      </c>
+      <c r="J48" s="14">
+        <f>COUNTIF(J34:J47,"완료")</f>
         <v>0</v>
       </c>
-      <c r="J48" s="61" t="str">
-        <f t="shared" si="5"/>
+    </row>
+    <row r="49" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="143" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="7">
+        <v>44490</v>
+      </c>
+      <c r="G49" s="7">
+        <v>44515</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="18">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4" t="str">
+        <f>IF(I49=100,"완료",IF(I49=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="49" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="17">
-        <f>AVERAGE(I35:I48)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="14">
-        <f>COUNTIF(J35:J48,"완료")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="121" t="s">
-        <v>46</v>
-      </c>
+    <row r="50" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="148"/>
       <c r="C50" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="D50" s="39"/>
       <c r="E50" s="11"/>
       <c r="F50" s="7">
-        <v>44490</v>
+        <v>44516</v>
       </c>
       <c r="G50" s="7">
-        <v>44515</v>
+        <v>44530</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="18">
         <v>0</v>
       </c>
-      <c r="J50" s="4" t="str">
-        <f>IF(I50=100,"완료",IF(I50=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="122"/>
-      <c r="C51" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="39"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="148"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="7">
-        <v>44516</v>
-      </c>
-      <c r="G51" s="7">
-        <v>44530</v>
-      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="18">
-        <v>0</v>
-      </c>
+      <c r="I51" s="18"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="122"/>
+    <row r="52" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="149"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="9"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="11"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="2:10" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B53" s="123"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="61" t="str">
-        <f>IF(I53=100,"완료",IF(I53=0,"-","진행중"))</f>
+      <c r="J52" s="61" t="str">
+        <f>IF(I52=100,"완료",IF(I52=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="17">
-        <f>AVERAGE(I50:I53)</f>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="17">
+        <f>AVERAGE(I49:I52)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="14">
-        <f>COUNTIF(J50:J53,"완료")</f>
+      <c r="J53" s="14">
+        <f>COUNTIF(J49:J52,"완료")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="121" t="s">
+    <row r="54" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="143" t="s">
         <v>7</v>
       </c>
+      <c r="C54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="7">
+        <v>44518</v>
+      </c>
+      <c r="G54" s="7">
+        <v>44521</v>
+      </c>
+      <c r="H54" s="40"/>
+      <c r="I54" s="41">
+        <v>0</v>
+      </c>
+      <c r="J54" s="61" t="str">
+        <f>IF(I54=100,"완료",IF(I54=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="148"/>
       <c r="C55" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="11"/>
@@ -3822,18 +3630,18 @@
         <v>-</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="122"/>
+    <row r="56" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="149"/>
       <c r="C56" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="11"/>
       <c r="F56" s="7">
-        <v>44518</v>
+        <v>44522</v>
       </c>
       <c r="G56" s="7">
-        <v>44521</v>
+        <v>44532</v>
       </c>
       <c r="H56" s="40"/>
       <c r="I56" s="41">
@@ -3845,150 +3653,128 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="123"/>
-      <c r="C57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="7">
-        <v>44522</v>
-      </c>
-      <c r="G57" s="7">
-        <v>44532</v>
-      </c>
-      <c r="H57" s="40"/>
-      <c r="I57" s="41">
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="17">
+        <f>AVERAGE(I54:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="61" t="str">
-        <f>IF(I57=100,"완료",IF(I57=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="17">
-        <f>AVERAGE(I55:I57)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="14">
-        <f>COUNTIF(J55:J57,"완료")</f>
+      <c r="J57" s="14">
+        <f>COUNTIF(J54:J56,"완료")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B49:B52"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B3:D5"/>
-    <mergeCell ref="B35:B48"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B47"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B29:B32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J6:J10">
-    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J6:J9">
+    <cfRule type="cellIs" dxfId="16" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J17 J20:J22">
-    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J12:J16 J19:J21">
+    <cfRule type="cellIs" dxfId="15" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50:J52">
-    <cfRule type="cellIs" dxfId="52" priority="37" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J49:J51">
+    <cfRule type="cellIs" dxfId="14" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="cellIs" dxfId="51" priority="35" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J52">
+    <cfRule type="cellIs" dxfId="13" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
-    <cfRule type="cellIs" dxfId="50" priority="31" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J54">
+    <cfRule type="cellIs" dxfId="12" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56:J57">
-    <cfRule type="cellIs" dxfId="49" priority="29" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J55:J56">
+    <cfRule type="cellIs" dxfId="11" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="48" priority="18" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="10" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="47" priority="16" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J17">
+    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="46" priority="14" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J43">
-    <cfRule type="cellIs" dxfId="45" priority="11" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J34:J42">
+    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:J48">
-    <cfRule type="cellIs" dxfId="41" priority="5" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J46:J47">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="40" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J32">
-    <cfRule type="cellIs" dxfId="38" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J29:J31">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J54" formula="1"/>
+    <ignoredError sqref="J53" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4030,72 +3816,72 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="155" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="155" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="155" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="129" t="s">
+      <c r="E3" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="129" t="s">
+      <c r="G3" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129" t="s">
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="129" t="s">
+      <c r="L3" s="155" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="129"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129" t="s">
+      <c r="A4" s="155"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="129" t="s">
+      <c r="H4" s="155" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="129" t="s">
+      <c r="I4" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="129" t="s">
+      <c r="J4" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
     </row>
     <row r="5" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="129"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="80" t="s">
@@ -4935,12 +4721,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -4948,6 +4728,12 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K3:K5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4969,50 +4755,50 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="156" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="131"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="131"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
+++ b/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhj32\Desktop\Contests_Capston\Git_ContentsIT_Capston_Design\docs\WBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB125A57-F1D0-4B8D-ABB0-87E8D9D03ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F890F8-EC61-4915-BEB0-3B90F7157DA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="3810" windowWidth="27105" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MILESTONE" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -560,10 +562,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(가제)메이브레이커 WBS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>메이브레이커
 PROJECT</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -590,6 +588,10 @@
   </si>
   <si>
     <t>모션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>룰 메이트(Rule mate) WBS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1645,6 +1647,18 @@
     <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1736,18 +1750,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2185,72 +2187,72 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="112" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="114"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="118"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="124" t="s">
+      <c r="E3" s="134"/>
+      <c r="F3" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="121" t="s">
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124" t="s">
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="121" t="s">
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="123"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="127"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="134"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
@@ -2301,16 +2303,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="115">
+      <c r="B5" s="119">
         <v>1</v>
       </c>
       <c r="C5" s="43">
         <v>44440</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="136"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="35"/>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -2329,14 +2331,14 @@
       <c r="U5" s="34"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="116"/>
-      <c r="C6" s="118" t="s">
+      <c r="B6" s="120"/>
+      <c r="C6" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="138"/>
+      <c r="E6" s="142"/>
       <c r="F6" s="38"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2355,12 +2357,12 @@
       <c r="U6" s="34"/>
     </row>
     <row r="7" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="116"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="139" t="s">
+      <c r="B7" s="120"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="140"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2379,12 +2381,12 @@
       <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="116"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="141" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="142"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2402,12 +2404,12 @@
       <c r="U8" s="34"/>
     </row>
     <row r="9" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="116"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="108" t="s">
+      <c r="B9" s="120"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="109"/>
+      <c r="E9" s="113"/>
       <c r="F9" s="35"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -2426,12 +2428,12 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="116"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="110" t="s">
+      <c r="B10" s="120"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="111"/>
+      <c r="E10" s="115"/>
       <c r="F10" s="35"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -2450,14 +2452,14 @@
       <c r="U10" s="34"/>
     </row>
     <row r="11" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="117"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="44">
         <v>44532</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="128"/>
+      <c r="E11" s="132"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="63"/>
@@ -2477,6 +2479,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2493,8 +2497,6 @@
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2514,8 +2516,8 @@
   </sheetPr>
   <dimension ref="B1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2533,7 +2535,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="147" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C1" s="147"/>
       <c r="D1" s="147"/>
@@ -2557,7 +2559,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="152" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="153"/>
       <c r="D3" s="153"/>
@@ -2603,7 +2605,7 @@
       </c>
       <c r="I5" s="3">
         <f>AVERAGE(I11,I18,I23,I48,I53,I57,I33)</f>
-        <v>15.30952380952381</v>
+        <v>15.666666666666668</v>
       </c>
       <c r="J5" s="2">
         <f>COUNTIF(J6:J57,"완료")</f>
@@ -2815,7 +2817,7 @@
     <row r="15" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="148"/>
       <c r="C15" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11"/>
@@ -2827,7 +2829,7 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="41">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J15" s="42" t="str">
         <f>IF(I15=100,"완료",IF(I15=0,"-","진행중"))</f>
@@ -2849,7 +2851,7 @@
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J16" s="42" t="str">
         <f>IF(I16=100,"완료",IF(I16=0,"-","진행중"))</f>
@@ -2859,7 +2861,7 @@
     <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="149"/>
       <c r="C17" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="11"/>
@@ -2888,7 +2890,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="17">
         <f>AVERAGE(I12:I17)</f>
-        <v>66.666666666666671</v>
+        <v>69.166666666666671</v>
       </c>
       <c r="J18" s="14">
         <f>COUNTIF(J12:J17,"완료")</f>
@@ -3004,10 +3006,10 @@
     </row>
     <row r="24" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="99" t="s">
         <v>105</v>
-      </c>
-      <c r="C24" s="99" t="s">
-        <v>106</v>
       </c>
       <c r="D24" s="100"/>
       <c r="E24" s="101"/>
@@ -3029,7 +3031,7 @@
     <row r="25" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="144"/>
       <c r="C25" s="99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="100"/>
       <c r="E25" s="104"/>
@@ -3051,7 +3053,7 @@
     <row r="26" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="144"/>
       <c r="C26" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="100"/>
       <c r="E26" s="104"/>
@@ -4721,6 +4723,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -4728,12 +4736,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K3:K5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
+++ b/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\WBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhj32\Desktop\Contests_Capston\Git_ContentsIT_Capston_Design\docs\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F890F8-EC61-4915-BEB0-3B90F7157DA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0732E5BF-4311-4BF2-837F-A610E555BB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2205" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MILESTONE" sheetId="2" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1647,6 +1645,18 @@
     <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1738,18 +1748,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2187,72 +2185,72 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="116" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="118"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="122"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="134"/>
-      <c r="F3" s="128" t="s">
+      <c r="E3" s="138"/>
+      <c r="F3" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="125" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128" t="s">
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="125" t="s">
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="127"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="131"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="138"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="136"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
       <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
@@ -2303,16 +2301,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="119">
+      <c r="B5" s="123">
         <v>1</v>
       </c>
       <c r="C5" s="43">
         <v>44440</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="140"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="35"/>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -2331,14 +2329,14 @@
       <c r="U5" s="34"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="120"/>
-      <c r="C6" s="122" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="142"/>
+      <c r="E6" s="111"/>
       <c r="F6" s="38"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2357,12 +2355,12 @@
       <c r="U6" s="34"/>
     </row>
     <row r="7" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="120"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="108" t="s">
+      <c r="B7" s="124"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="109"/>
+      <c r="E7" s="113"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2381,12 +2379,12 @@
       <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="120"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="110" t="s">
+      <c r="B8" s="124"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="111"/>
+      <c r="E8" s="115"/>
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2404,12 +2402,12 @@
       <c r="U8" s="34"/>
     </row>
     <row r="9" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="120"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="112" t="s">
+      <c r="B9" s="124"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="113"/>
+      <c r="E9" s="117"/>
       <c r="F9" s="35"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -2428,12 +2426,12 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="120"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="114" t="s">
+      <c r="B10" s="124"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="115"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -2452,14 +2450,14 @@
       <c r="U10" s="34"/>
     </row>
     <row r="11" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="121"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="44">
         <v>44532</v>
       </c>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="132"/>
+      <c r="E11" s="136"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="63"/>
@@ -2479,11 +2477,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="B2:E2"/>
@@ -2497,6 +2490,11 @@
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2516,8 +2514,8 @@
   </sheetPr>
   <dimension ref="B1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2605,11 +2603,11 @@
       </c>
       <c r="I5" s="3">
         <f>AVERAGE(I11,I18,I23,I48,I53,I57,I33)</f>
-        <v>15.666666666666668</v>
+        <v>20.595238095238098</v>
       </c>
       <c r="J5" s="2">
         <f>COUNTIF(J6:J57,"완료")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5" s="30"/>
     </row>
@@ -2630,11 +2628,11 @@
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="18">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J6" s="4" t="str">
         <f>IF(I6=100,"완료",IF(I6=0,"-","진행중"))</f>
-        <v>진행중</v>
+        <v>완료</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2677,11 +2675,11 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="41">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="42" t="str">
         <f t="shared" ref="J8:J21" si="0">IF(I8=100,"완료",IF(I8=0,"-","진행중"))</f>
-        <v>-</v>
+        <v>완료</v>
       </c>
       <c r="L8" s="30"/>
     </row>
@@ -2733,11 +2731,11 @@
       <c r="H11" s="23"/>
       <c r="I11" s="17">
         <f>AVERAGE(I6:I10)</f>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J11" s="14">
         <f>COUNTIF(J6:J10,"완료")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3283,7 +3281,7 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="41">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J37" s="42" t="str">
         <f t="shared" si="5"/>
@@ -3494,7 +3492,7 @@
       <c r="H48" s="23"/>
       <c r="I48" s="17">
         <f>AVERAGE(I34:I47)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J48" s="14">
         <f>COUNTIF(J34:J47,"완료")</f>
@@ -3518,11 +3516,11 @@
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J49" s="4" t="str">
         <f>IF(I49=100,"완료",IF(I49=0,"-","진행중"))</f>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3579,7 +3577,7 @@
       <c r="H53" s="23"/>
       <c r="I53" s="17">
         <f>AVERAGE(I49:I52)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J53" s="14">
         <f>COUNTIF(J49:J52,"완료")</f>
@@ -4723,12 +4721,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -4736,6 +4728,12 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K3:K5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
+++ b/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhj32\Desktop\Contests_Capston\Git_ContentsIT_Capston_Design\docs\WBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0732E5BF-4311-4BF2-837F-A610E555BB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD15094A-F0A6-4B6F-9229-09AD496D94E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2205" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MILESTONE" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2_WBS'!$B$3:$J$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2_WBS'!$B$3:$J$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MILESTONE!$A$1:$V$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -152,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
   <si>
     <t>END</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -565,10 +567,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>통합 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>그래픽/아트 기획서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -590,6 +588,22 @@
   </si>
   <si>
     <t>룰 메이트(Rule mate) WBS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 시트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀/로고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 기획보고서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 밸런싱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1645,36 +1659,6 @@
     <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1748,6 +1732,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2185,72 +2199,72 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="120" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="122"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="112"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="132" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="129" t="s">
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132" t="s">
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="129" t="s">
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="131"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="121"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="142"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="140"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
@@ -2301,16 +2315,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="123">
+      <c r="B5" s="113">
         <v>1</v>
       </c>
       <c r="C5" s="43">
         <v>44440</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="109"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="35"/>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -2329,14 +2343,14 @@
       <c r="U5" s="34"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="124"/>
-      <c r="C6" s="126" t="s">
+      <c r="B6" s="114"/>
+      <c r="C6" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="111"/>
+      <c r="E6" s="136"/>
       <c r="F6" s="38"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2355,12 +2369,12 @@
       <c r="U6" s="34"/>
     </row>
     <row r="7" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="124"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="112" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="113"/>
+      <c r="E7" s="138"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2379,12 +2393,12 @@
       <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="124"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="114" t="s">
+      <c r="B8" s="114"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="115"/>
+      <c r="E8" s="140"/>
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2402,12 +2416,12 @@
       <c r="U8" s="34"/>
     </row>
     <row r="9" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="116" t="s">
+      <c r="B9" s="114"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="117"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="35"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -2426,12 +2440,12 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="124"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="118" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="119"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="35"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -2450,14 +2464,14 @@
       <c r="U10" s="34"/>
     </row>
     <row r="11" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="125"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="44">
         <v>44532</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="136"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="63"/>
@@ -2477,6 +2491,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="B2:E2"/>
@@ -2493,8 +2509,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2512,10 +2526,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L57"/>
+  <dimension ref="B1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2533,7 +2547,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="147" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="147"/>
       <c r="D1" s="147"/>
@@ -2602,12 +2616,12 @@
         <v>4</v>
       </c>
       <c r="I5" s="3">
-        <f>AVERAGE(I11,I18,I23,I48,I53,I57,I33)</f>
-        <v>20.595238095238098</v>
+        <f>AVERAGE(I11,I18,I25,I50,I55,I60,I35)</f>
+        <v>25.595238095238098</v>
       </c>
       <c r="J5" s="2">
-        <f>COUNTIF(J6:J57,"완료")</f>
-        <v>6</v>
+        <f>COUNTIF(J6:J60,"완료")</f>
+        <v>8</v>
       </c>
       <c r="L5" s="30"/>
     </row>
@@ -2673,12 +2687,14 @@
       <c r="G8" s="7">
         <v>44481</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>44481</v>
+      </c>
       <c r="I8" s="41">
         <v>100</v>
       </c>
       <c r="J8" s="42" t="str">
-        <f t="shared" ref="J8:J21" si="0">IF(I8=100,"완료",IF(I8=0,"-","진행중"))</f>
+        <f t="shared" ref="J8:J23" si="0">IF(I8=100,"완료",IF(I8=0,"-","진행중"))</f>
         <v>완료</v>
       </c>
       <c r="L8" s="30"/>
@@ -2815,7 +2831,7 @@
     <row r="15" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="148"/>
       <c r="C15" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11"/>
@@ -2859,7 +2875,7 @@
     <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="149"/>
       <c r="C17" s="27" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="11"/>
@@ -2867,7 +2883,7 @@
         <v>44454</v>
       </c>
       <c r="G17" s="7">
-        <v>44472</v>
+        <v>44532</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="18">
@@ -2908,153 +2924,157 @@
         <v>44470</v>
       </c>
       <c r="G19" s="7">
-        <v>44512</v>
-      </c>
-      <c r="H19" s="7"/>
+        <v>44481</v>
+      </c>
+      <c r="H19" s="7">
+        <v>44480</v>
+      </c>
       <c r="I19" s="18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>완료</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="148"/>
       <c r="C20" s="8" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11"/>
       <c r="F20" s="7">
-        <v>44470</v>
+        <v>44481</v>
       </c>
       <c r="G20" s="7">
-        <v>44512</v>
+        <v>44486</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="18">
+        <v>10</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f>IF(I20=100,"완료",IF(I20=0,"-","진행중"))</f>
+        <v>진행중</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="148"/>
+      <c r="C21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7">
+        <v>44470</v>
+      </c>
+      <c r="G21" s="7">
+        <v>44481</v>
+      </c>
+      <c r="H21" s="7">
+        <v>44480</v>
+      </c>
+      <c r="I21" s="18">
+        <v>100</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f>IF(I21=100,"완료",IF(I21=0,"-","진행중"))</f>
+        <v>완료</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="148"/>
+      <c r="C22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="7">
+        <v>44470</v>
+      </c>
+      <c r="G22" s="7">
+        <v>44512</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="18">
         <v>0</v>
       </c>
-      <c r="J20" s="4" t="str">
+      <c r="J22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="148"/>
-      <c r="C21" s="27" t="s">
+    <row r="23" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="148"/>
+      <c r="C23" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="7">
+      <c r="D23" s="9"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="7">
         <v>44470</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G23" s="7">
         <v>44512</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="47">
+      <c r="H23" s="7"/>
+      <c r="I23" s="47">
         <v>0</v>
       </c>
-      <c r="J21" s="48" t="str">
+      <c r="J23" s="48" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="149"/>
-      <c r="C22" s="27" t="s">
+    <row r="24" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="149"/>
+      <c r="C24" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="7">
+      <c r="D24" s="9"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="7">
         <v>44470</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G24" s="7">
         <v>44512</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="47">
+      <c r="H24" s="7"/>
+      <c r="I24" s="47">
         <v>0</v>
       </c>
-      <c r="J22" s="62" t="str">
-        <f t="shared" ref="J22" si="3">IF(I22=100,"완료",IF(I22=0,"-","진행중"))</f>
+      <c r="J24" s="62" t="str">
+        <f t="shared" ref="J24" si="3">IF(I24=100,"완료",IF(I24=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="90">
-        <f>AVERAGE(I19:I22)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="91">
-        <f>COUNTIF(J19:J22,"완료")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="143" t="s">
+    <row r="25" spans="2:10" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="19"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="90">
+        <f>AVERAGE(I19:I24)</f>
+        <v>35</v>
+      </c>
+      <c r="J25" s="91">
+        <f>COUNTIF(J19:J24,"완료")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102">
-        <v>44478</v>
-      </c>
-      <c r="G24" s="102">
-        <v>44517</v>
-      </c>
-      <c r="H24" s="103"/>
-      <c r="I24" s="107">
-        <v>0</v>
-      </c>
-      <c r="J24" s="106" t="str">
-        <f>IF(I24=100,"완료",IF(I24=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="144"/>
-      <c r="C25" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="102">
-        <v>44478</v>
-      </c>
-      <c r="G25" s="102">
-        <v>44517</v>
-      </c>
-      <c r="H25" s="103"/>
-      <c r="I25" s="107">
-        <v>0</v>
-      </c>
-      <c r="J25" s="106" t="str">
-        <f>IF(I25=100,"완료",IF(I25=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="144"/>
-      <c r="C26" s="99" t="s">
-        <v>107</v>
-      </c>
       <c r="D26" s="100"/>
-      <c r="E26" s="104"/>
+      <c r="E26" s="101"/>
       <c r="F26" s="102">
         <v>44478</v>
       </c>
@@ -3071,12 +3091,18 @@
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="145"/>
-      <c r="C27" s="99"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="99" t="s">
+        <v>105</v>
+      </c>
       <c r="D27" s="100"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="102">
+        <v>44478</v>
+      </c>
+      <c r="G27" s="102">
+        <v>44517</v>
+      </c>
       <c r="H27" s="103"/>
       <c r="I27" s="107">
         <v>0</v>
@@ -3086,190 +3112,184 @@
         <v>-</v>
       </c>
     </row>
-    <row r="28" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="84"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="97">
-        <f>AVERAGE(I24:I27)</f>
+    <row r="28" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="144"/>
+      <c r="C28" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="100"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="102">
+        <v>44478</v>
+      </c>
+      <c r="G28" s="102">
+        <v>44517</v>
+      </c>
+      <c r="H28" s="103"/>
+      <c r="I28" s="107">
         <v>0</v>
       </c>
-      <c r="J28" s="98">
-        <f>COUNTIF(J24:J27,"완료")</f>
+      <c r="J28" s="106" t="str">
+        <f>IF(I28=100,"완료",IF(I28=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="145"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="143" t="s">
+      <c r="J29" s="106" t="str">
+        <f>IF(I29=100,"완료",IF(I29=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="84"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="97">
+        <f>AVERAGE(I26:I29)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="98">
+        <f>COUNTIF(J26:J29,"완료")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="7">
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="7">
         <v>44501</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G31" s="7">
         <v>44512</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="18">
+      <c r="H31" s="7"/>
+      <c r="I31" s="18">
         <v>0</v>
       </c>
-      <c r="J29" s="4" t="str">
-        <f t="shared" ref="J29:J32" si="4">IF(I29=100,"완료",IF(I29=0,"-","진행중"))</f>
+      <c r="J31" s="4" t="str">
+        <f t="shared" ref="J31:J34" si="4">IF(I31=100,"완료",IF(I31=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="148"/>
-      <c r="C30" s="8" t="s">
+    <row r="32" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="148"/>
+      <c r="C32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="7">
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="7">
         <v>44501</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G32" s="7">
         <v>44512</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="18">
+      <c r="H32" s="7"/>
+      <c r="I32" s="18">
         <v>0</v>
       </c>
-      <c r="J30" s="4" t="str">
+      <c r="J32" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="148"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="47">
+    <row r="33" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="148"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="47">
         <v>0</v>
       </c>
-      <c r="J31" s="48" t="str">
+      <c r="J33" s="48" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="149"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="47">
+    <row r="34" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="149"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="47">
         <v>0</v>
       </c>
-      <c r="J32" s="62" t="str">
+      <c r="J34" s="62" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="17">
-        <f>AVERAGE(I29:I32)</f>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="17">
+        <f>AVERAGE(I31:I34)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="14">
-        <f>COUNTIF(J29:J32,"완료")</f>
+      <c r="J35" s="14">
+        <f>COUNTIF(J31:J34,"완료")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="154" t="s">
+    <row r="36" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="7">
-        <v>44481</v>
-      </c>
-      <c r="G34" s="7">
-        <v>44505</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="41">
-        <v>0</v>
-      </c>
-      <c r="J34" s="42" t="str">
-        <f t="shared" ref="J34:J47" si="5">IF(I34=100,"완료",IF(I34=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="154"/>
-      <c r="C35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="7">
-        <v>44459</v>
-      </c>
-      <c r="G35" s="7">
-        <v>44489</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="41">
-        <v>20</v>
-      </c>
-      <c r="J35" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>진행중</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="154"/>
-      <c r="C36" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="11"/>
       <c r="F36" s="7">
-        <v>44459</v>
+        <v>44481</v>
       </c>
       <c r="G36" s="7">
-        <v>44489</v>
+        <v>44505</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="41">
         <v>0</v>
       </c>
       <c r="J36" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J36:J49" si="5">IF(I36=100,"완료",IF(I36=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="154"/>
       <c r="C37" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="11"/>
@@ -3281,7 +3301,7 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="41">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J37" s="42" t="str">
         <f t="shared" si="5"/>
@@ -3291,27 +3311,31 @@
     <row r="38" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="154"/>
       <c r="C38" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="40"/>
+      <c r="F38" s="7">
+        <v>44459</v>
+      </c>
+      <c r="G38" s="7">
+        <v>44489</v>
+      </c>
+      <c r="H38" s="7"/>
       <c r="I38" s="41">
         <v>0</v>
       </c>
-      <c r="J38" s="61" t="str">
+      <c r="J38" s="42" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="154"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="39" t="s">
-        <v>54</v>
-      </c>
+      <c r="C39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="39"/>
       <c r="E39" s="11"/>
       <c r="F39" s="7">
         <v>44459</v>
@@ -3319,28 +3343,24 @@
       <c r="G39" s="7">
         <v>44489</v>
       </c>
-      <c r="H39" s="40"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="41">
-        <v>0</v>
-      </c>
-      <c r="J39" s="61" t="str">
+        <v>50</v>
+      </c>
+      <c r="J39" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="154"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="39" t="s">
-        <v>55</v>
-      </c>
+      <c r="C40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="39"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="7">
-        <v>44490</v>
-      </c>
-      <c r="G40" s="7">
-        <v>44517</v>
-      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="40"/>
       <c r="I40" s="41">
         <v>0</v>
@@ -3352,16 +3372,16 @@
     </row>
     <row r="41" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="154"/>
-      <c r="C41" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="39"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="E41" s="11"/>
       <c r="F41" s="7">
-        <v>44513</v>
+        <v>44459</v>
       </c>
       <c r="G41" s="7">
-        <v>44517</v>
+        <v>44489</v>
       </c>
       <c r="H41" s="40"/>
       <c r="I41" s="41">
@@ -3374,13 +3394,17 @@
     </row>
     <row r="42" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="154"/>
-      <c r="C42" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="39"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="E42" s="11"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="F42" s="7">
+        <v>44490</v>
+      </c>
+      <c r="G42" s="7">
+        <v>44517</v>
+      </c>
       <c r="H42" s="40"/>
       <c r="I42" s="41">
         <v>0</v>
@@ -3390,20 +3414,20 @@
         <v>-</v>
       </c>
     </row>
-    <row r="43" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="154"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="39" t="s">
-        <v>51</v>
-      </c>
+      <c r="C43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="39"/>
       <c r="E43" s="11"/>
       <c r="F43" s="7">
-        <v>44490</v>
+        <v>44513</v>
       </c>
       <c r="G43" s="7">
         <v>44517</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="41">
         <v>0</v>
       </c>
@@ -3414,18 +3438,14 @@
     </row>
     <row r="44" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="154"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="39" t="s">
-        <v>52</v>
-      </c>
+      <c r="C44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="39"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="7">
-        <v>44490</v>
-      </c>
-      <c r="G44" s="7">
-        <v>44517</v>
-      </c>
-      <c r="H44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="41">
         <v>0</v>
       </c>
@@ -3434,13 +3454,19 @@
         <v>-</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="154"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="39"/>
+      <c r="D45" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="E45" s="11"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="F45" s="7">
+        <v>44490</v>
+      </c>
+      <c r="G45" s="7">
+        <v>44517</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="41">
         <v>0</v>
@@ -3453,10 +3479,16 @@
     <row r="46" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="154"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="39"/>
+      <c r="D46" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="E46" s="11"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="F46" s="7">
+        <v>44490</v>
+      </c>
+      <c r="G46" s="7">
+        <v>44517</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="41">
         <v>0</v>
@@ -3473,7 +3505,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="49"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="41">
         <v>0</v>
       </c>
@@ -3482,166 +3514,154 @@
         <v>-</v>
       </c>
     </row>
-    <row r="48" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="17">
-        <f>AVERAGE(I34:I47)</f>
+    <row r="48" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="154"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="41">
+        <v>0</v>
+      </c>
+      <c r="J48" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="154"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="41">
+        <v>0</v>
+      </c>
+      <c r="J49" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="17">
+        <f>AVERAGE(I36:I49)</f>
         <v>5</v>
       </c>
-      <c r="J48" s="14">
-        <f>COUNTIF(J34:J47,"완료")</f>
+      <c r="J50" s="14">
+        <f>COUNTIF(J36:J49,"완료")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="143" t="s">
+    <row r="51" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="7">
-        <v>44490</v>
-      </c>
-      <c r="G49" s="7">
-        <v>44515</v>
-      </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="18">
-        <v>20</v>
-      </c>
-      <c r="J49" s="4" t="str">
-        <f>IF(I49=100,"완료",IF(I49=0,"-","진행중"))</f>
-        <v>진행중</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="148"/>
-      <c r="C50" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="7">
-        <v>44516</v>
-      </c>
-      <c r="G50" s="7">
-        <v>44530</v>
-      </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="18">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="148"/>
-      <c r="C51" s="5"/>
       <c r="D51" s="9"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="F51" s="7">
+        <v>44490</v>
+      </c>
+      <c r="G51" s="7">
+        <v>44515</v>
+      </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="149"/>
-      <c r="C52" s="5"/>
+      <c r="I51" s="18">
+        <v>20</v>
+      </c>
+      <c r="J51" s="4" t="str">
+        <f>IF(I51=100,"완료",IF(I51=0,"-","진행중"))</f>
+        <v>진행중</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="148"/>
+      <c r="C52" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D52" s="39"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="F52" s="7">
+        <v>44516</v>
+      </c>
+      <c r="G52" s="7">
+        <v>44530</v>
+      </c>
       <c r="H52" s="7"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="61" t="str">
-        <f>IF(I52=100,"완료",IF(I52=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="17">
-        <f>AVERAGE(I49:I52)</f>
-        <v>10</v>
-      </c>
-      <c r="J53" s="14">
-        <f>COUNTIF(J49:J52,"완료")</f>
+      <c r="I52" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="143" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="9"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="148"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="149"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="39"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="7">
-        <v>44518</v>
-      </c>
-      <c r="G54" s="7">
-        <v>44521</v>
-      </c>
-      <c r="H54" s="40"/>
-      <c r="I54" s="41">
-        <v>0</v>
-      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="18"/>
       <c r="J54" s="61" t="str">
         <f>IF(I54=100,"완료",IF(I54=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="148"/>
-      <c r="C55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="7">
-        <v>44518</v>
-      </c>
-      <c r="G55" s="7">
-        <v>44521</v>
-      </c>
-      <c r="H55" s="40"/>
-      <c r="I55" s="41">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="17">
+        <f>AVERAGE(I51:I54)</f>
+        <v>10</v>
+      </c>
+      <c r="J55" s="14">
+        <f>COUNTIF(J51:J54,"완료")</f>
         <v>0</v>
       </c>
-      <c r="J55" s="61" t="str">
-        <f>IF(I55=100,"완료",IF(I55=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
     </row>
     <row r="56" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="149"/>
+      <c r="B56" s="143" t="s">
+        <v>7</v>
+      </c>
       <c r="C56" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="11"/>
       <c r="F56" s="7">
-        <v>44522</v>
+        <v>44518</v>
       </c>
       <c r="G56" s="7">
-        <v>44532</v>
+        <v>44521</v>
       </c>
       <c r="H56" s="40"/>
       <c r="I56" s="41">
@@ -3652,38 +3672,102 @@
         <v>-</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="17">
-        <f>AVERAGE(I54:I56)</f>
+    <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="148"/>
+      <c r="C57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="7">
+        <v>44518</v>
+      </c>
+      <c r="G57" s="7">
+        <v>44521</v>
+      </c>
+      <c r="H57" s="40"/>
+      <c r="I57" s="41">
         <v>0</v>
       </c>
-      <c r="J57" s="14">
-        <f>COUNTIF(J54:J56,"완료")</f>
+      <c r="J57" s="61" t="str">
+        <f>IF(I58=100,"완료",IF(I57=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="148"/>
+      <c r="C58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="7">
+        <v>44518</v>
+      </c>
+      <c r="G58" s="7">
+        <v>44521</v>
+      </c>
+      <c r="H58" s="40"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="61" t="str">
+        <f>IF(I58=100,"완료",IF(I58=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="149"/>
+      <c r="C59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="7">
+        <v>44522</v>
+      </c>
+      <c r="G59" s="7">
+        <v>44532</v>
+      </c>
+      <c r="H59" s="40"/>
+      <c r="I59" s="41">
+        <v>0</v>
+      </c>
+      <c r="J59" s="61" t="str">
+        <f>IF(I59=100,"완료",IF(I59=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="17">
+        <f>AVERAGE(I56:I59)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="14">
+        <f>COUNTIF(J56:J59,"완료")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B26:B29"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B51:B54"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B3:D5"/>
-    <mergeCell ref="B34:B47"/>
+    <mergeCell ref="B36:B49"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B31:B34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J6:J9">
@@ -3691,27 +3775,27 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J16 J19:J21">
+  <conditionalFormatting sqref="J12:J16 J19:J23">
     <cfRule type="cellIs" dxfId="15" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49:J51">
+  <conditionalFormatting sqref="J51:J53">
     <cfRule type="cellIs" dxfId="14" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
+  <conditionalFormatting sqref="J54">
     <cfRule type="cellIs" dxfId="13" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
+  <conditionalFormatting sqref="J56">
     <cfRule type="cellIs" dxfId="12" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55:J56">
+  <conditionalFormatting sqref="J57:J59">
     <cfRule type="cellIs" dxfId="11" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3726,32 +3810,32 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J24">
     <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J42">
+  <conditionalFormatting sqref="J36:J44">
     <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
+  <conditionalFormatting sqref="J45">
     <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
+  <conditionalFormatting sqref="J46">
     <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
+  <conditionalFormatting sqref="J47">
     <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46:J47">
+  <conditionalFormatting sqref="J48:J49">
     <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3761,12 +3845,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="J34">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J31">
+  <conditionalFormatting sqref="J31:J33">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3774,7 +3858,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J53" formula="1"/>
+    <ignoredError sqref="J55" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4721,6 +4805,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -4728,12 +4818,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K3:K5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
+++ b/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD15094A-F0A6-4B6F-9229-09AD496D94E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7F3708-915B-4B3B-96C0-451D125A591D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,48 +562,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>메이브레이커
+    <t>그래픽/아트 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리깅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>룰 메이트(Rule mate) WBS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 시트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀/로고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 기획보고서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 밸런싱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>룰 메이트(Rule mate)
 PROJECT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래픽/아트 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리깅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>룰 메이트(Rule mate) WBS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 시트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀/로고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합 기획보고서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 밸런싱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1659,6 +1659,18 @@
     <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1750,18 +1762,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1913,6 +1913,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2199,72 +2203,72 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="110" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="112"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="116"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="122" t="s">
+      <c r="E3" s="132"/>
+      <c r="F3" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="119" t="s">
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="122" t="s">
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="119" t="s">
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="121"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="125"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="132"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="130"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
@@ -2315,16 +2319,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="113">
+      <c r="B5" s="117">
         <v>1</v>
       </c>
       <c r="C5" s="43">
         <v>44440</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="134"/>
+      <c r="E5" s="138"/>
       <c r="F5" s="35"/>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -2343,14 +2347,14 @@
       <c r="U5" s="34"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="114"/>
-      <c r="C6" s="116" t="s">
+      <c r="B6" s="118"/>
+      <c r="C6" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="136"/>
+      <c r="E6" s="140"/>
       <c r="F6" s="38"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2369,12 +2373,12 @@
       <c r="U6" s="34"/>
     </row>
     <row r="7" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="114"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="137" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="138"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2393,12 +2397,12 @@
       <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="114"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="139" t="s">
+      <c r="B8" s="118"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="140"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2416,12 +2420,12 @@
       <c r="U8" s="34"/>
     </row>
     <row r="9" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="114"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="141" t="s">
+      <c r="B9" s="118"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="142"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="35"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -2440,12 +2444,12 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="114"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="108" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="109"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="35"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -2464,14 +2468,14 @@
       <c r="U10" s="34"/>
     </row>
     <row r="11" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="115"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="44">
         <v>44532</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="126"/>
+      <c r="E11" s="130"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="63"/>
@@ -2491,6 +2495,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2507,8 +2513,6 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2528,8 +2532,8 @@
   </sheetPr>
   <dimension ref="B1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2547,7 +2551,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="147" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="147"/>
       <c r="D1" s="147"/>
@@ -2571,7 +2575,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="152" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C3" s="153"/>
       <c r="D3" s="153"/>
@@ -2617,11 +2621,11 @@
       </c>
       <c r="I5" s="3">
         <f>AVERAGE(I11,I18,I25,I50,I55,I60,I35)</f>
-        <v>25.595238095238098</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="J5" s="2">
         <f>COUNTIF(J6:J60,"완료")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L5" s="30"/>
     </row>
@@ -2831,7 +2835,7 @@
     <row r="15" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="148"/>
       <c r="C15" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11"/>
@@ -2841,13 +2845,15 @@
       <c r="G15" s="7">
         <v>44469</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>44475</v>
+      </c>
       <c r="I15" s="41">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J15" s="42" t="str">
         <f>IF(I15=100,"완료",IF(I15=0,"-","진행중"))</f>
-        <v>진행중</v>
+        <v>완료</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2875,7 +2881,7 @@
     <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="149"/>
       <c r="C17" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="11"/>
@@ -2904,11 +2910,11 @@
       <c r="H18" s="23"/>
       <c r="I18" s="17">
         <f>AVERAGE(I12:I17)</f>
-        <v>69.166666666666671</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="J18" s="14">
         <f>COUNTIF(J12:J17,"완료")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2940,7 +2946,7 @@
     <row r="20" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="148"/>
       <c r="C20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11"/>
@@ -2950,19 +2956,21 @@
       <c r="G20" s="7">
         <v>44486</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7">
+        <v>44486</v>
+      </c>
       <c r="I20" s="18">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J20" s="4" t="str">
         <f>IF(I20=100,"완료",IF(I20=0,"-","진행중"))</f>
-        <v>진행중</v>
+        <v>완료</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="148"/>
       <c r="C21" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="11"/>
@@ -3059,19 +3067,19 @@
       <c r="H25" s="89"/>
       <c r="I25" s="90">
         <f>AVERAGE(I19:I24)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J25" s="91">
         <f>COUNTIF(J19:J24,"완료")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="143" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="99" t="s">
         <v>103</v>
-      </c>
-      <c r="C26" s="99" t="s">
-        <v>104</v>
       </c>
       <c r="D26" s="100"/>
       <c r="E26" s="101"/>
@@ -3093,7 +3101,7 @@
     <row r="27" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="144"/>
       <c r="C27" s="99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="100"/>
       <c r="E27" s="104"/>
@@ -3115,7 +3123,7 @@
     <row r="28" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="144"/>
       <c r="C28" s="99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="100"/>
       <c r="E28" s="104"/>
@@ -3690,14 +3698,14 @@
         <v>0</v>
       </c>
       <c r="J57" s="61" t="str">
-        <f>IF(I58=100,"완료",IF(I57=0,"-","진행중"))</f>
+        <f>IF(I57=100,"완료",IF(I57=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="148"/>
       <c r="C58" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="11"/>
@@ -3708,7 +3716,9 @@
         <v>44521</v>
       </c>
       <c r="H58" s="40"/>
-      <c r="I58" s="41"/>
+      <c r="I58" s="41">
+        <v>0</v>
+      </c>
       <c r="J58" s="61" t="str">
         <f>IF(I58=100,"완료",IF(I58=0,"-","진행중"))</f>
         <v>-</v>
@@ -4805,12 +4815,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -4818,6 +4822,12 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K3:K5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
+++ b/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\WBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhj32\Desktop\Contests_Capston\Git_ContentsIT_Capston_Design\docs\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7F3708-915B-4B3B-96C0-451D125A591D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DFEB89-ABAB-4067-9641-24FA2063AF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2205" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MILESTONE" sheetId="2" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1659,6 +1657,18 @@
     <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1750,18 +1760,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2203,72 +2201,72 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="114" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="116"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="120"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="132"/>
-      <c r="F3" s="126" t="s">
+      <c r="E3" s="136"/>
+      <c r="F3" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="123" t="s">
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="126" t="s">
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="123" t="s">
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="125"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="129"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="136"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="134"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
@@ -2319,16 +2317,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="117">
+      <c r="B5" s="121">
         <v>1</v>
       </c>
       <c r="C5" s="43">
         <v>44440</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="138"/>
+      <c r="E5" s="142"/>
       <c r="F5" s="35"/>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -2347,14 +2345,14 @@
       <c r="U5" s="34"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="118"/>
-      <c r="C6" s="120" t="s">
+      <c r="B6" s="122"/>
+      <c r="C6" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="140"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="38"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2373,12 +2371,12 @@
       <c r="U6" s="34"/>
     </row>
     <row r="7" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="118"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="141" t="s">
+      <c r="B7" s="122"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="142"/>
+      <c r="E7" s="111"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2397,12 +2395,12 @@
       <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="118"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="108" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="109"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2420,12 +2418,12 @@
       <c r="U8" s="34"/>
     </row>
     <row r="9" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="118"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="110" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="111"/>
+      <c r="E9" s="115"/>
       <c r="F9" s="35"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -2444,12 +2442,12 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="118"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="112" t="s">
+      <c r="B10" s="122"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="113"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="35"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -2468,14 +2466,14 @@
       <c r="U10" s="34"/>
     </row>
     <row r="11" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="119"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="44">
         <v>44532</v>
       </c>
-      <c r="D11" s="129" t="s">
+      <c r="D11" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="130"/>
+      <c r="E11" s="134"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="63"/>
@@ -2495,11 +2493,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:B11"/>
@@ -2513,6 +2506,11 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2532,8 +2530,8 @@
   </sheetPr>
   <dimension ref="B1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2621,7 +2619,7 @@
       </c>
       <c r="I5" s="3">
         <f>AVERAGE(I11,I18,I25,I50,I55,I60,I35)</f>
-        <v>28.333333333333332</v>
+        <v>30.578231292517007</v>
       </c>
       <c r="J5" s="2">
         <f>COUNTIF(J6:J60,"완료")</f>
@@ -3393,11 +3391,11 @@
       </c>
       <c r="H41" s="40"/>
       <c r="I41" s="41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J41" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3477,11 +3475,11 @@
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="41">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J45" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3564,7 +3562,7 @@
       <c r="H50" s="23"/>
       <c r="I50" s="17">
         <f>AVERAGE(I36:I49)</f>
-        <v>5</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="J50" s="14">
         <f>COUNTIF(J36:J49,"완료")</f>
@@ -3588,7 +3586,7 @@
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="18">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J51" s="4" t="str">
         <f>IF(I51=100,"완료",IF(I51=0,"-","진행중"))</f>
@@ -3649,7 +3647,7 @@
       <c r="H55" s="23"/>
       <c r="I55" s="17">
         <f>AVERAGE(I51:I54)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J55" s="14">
         <f>COUNTIF(J51:J54,"완료")</f>
@@ -4815,6 +4813,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -4822,12 +4826,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K3:K5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
+++ b/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhj32\Desktop\Contests_Capston\Git_ContentsIT_Capston_Design\docs\WBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DFEB89-ABAB-4067-9641-24FA2063AF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8505C895-4EAB-40B2-8761-5B3FBFE0E1DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2205" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MILESTONE" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2_WBS'!$B$3:$J$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2_WBS'!$B$3:$J$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MILESTONE!$A$1:$V$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -152,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
   <si>
     <t>END</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -602,6 +604,10 @@
   <si>
     <t>룰 메이트(Rule mate)
 PROJECT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 스탠딩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1657,36 +1663,6 @@
     <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1760,6 +1736,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1911,10 +1917,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2201,72 +2203,72 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="118" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="120"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="110"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="135" t="s">
+      <c r="D3" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="130" t="s">
+      <c r="E3" s="126"/>
+      <c r="F3" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="127" t="s">
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="130" t="s">
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="127" t="s">
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="129"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="119"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="140"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="138"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="128"/>
       <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
@@ -2317,16 +2319,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="121">
+      <c r="B5" s="111">
         <v>1</v>
       </c>
       <c r="C5" s="43">
         <v>44440</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="142"/>
+      <c r="E5" s="132"/>
       <c r="F5" s="35"/>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -2345,14 +2347,14 @@
       <c r="U5" s="34"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="122"/>
-      <c r="C6" s="124" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="109"/>
+      <c r="E6" s="134"/>
       <c r="F6" s="38"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2371,12 +2373,12 @@
       <c r="U6" s="34"/>
     </row>
     <row r="7" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="122"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="110" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="111"/>
+      <c r="E7" s="136"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2395,12 +2397,12 @@
       <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="122"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="112" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="113"/>
+      <c r="E8" s="138"/>
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2418,12 +2420,12 @@
       <c r="U8" s="34"/>
     </row>
     <row r="9" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="122"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="114" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="115"/>
+      <c r="E9" s="140"/>
       <c r="F9" s="35"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -2442,12 +2444,12 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="122"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="116" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="117"/>
+      <c r="E10" s="142"/>
       <c r="F10" s="35"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -2466,14 +2468,14 @@
       <c r="U10" s="34"/>
     </row>
     <row r="11" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="123"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="44">
         <v>44532</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="134"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="63"/>
@@ -2493,6 +2495,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:B11"/>
@@ -2509,8 +2513,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2528,9 +2530,9 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L60"/>
+  <dimension ref="B1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -2618,11 +2620,11 @@
         <v>4</v>
       </c>
       <c r="I5" s="3">
-        <f>AVERAGE(I11,I18,I25,I50,I55,I60,I35)</f>
-        <v>30.578231292517007</v>
+        <f>AVERAGE(I11,I18,I26,I51,I56,I61,I36)</f>
+        <v>30.136054421768709</v>
       </c>
       <c r="J5" s="2">
-        <f>COUNTIF(J6:J60,"완료")</f>
+        <f>COUNTIF(J6:J61,"완료")</f>
         <v>10</v>
       </c>
       <c r="L5" s="30"/>
@@ -2696,7 +2698,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="42" t="str">
-        <f t="shared" ref="J8:J23" si="0">IF(I8=100,"완료",IF(I8=0,"-","진행중"))</f>
+        <f t="shared" ref="J8:J24" si="0">IF(I8=100,"완료",IF(I8=0,"-","진행중"))</f>
         <v>완료</v>
       </c>
       <c r="L8" s="30"/>
@@ -2869,7 +2871,7 @@
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="41">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J16" s="42" t="str">
         <f>IF(I16=100,"완료",IF(I16=0,"-","진행중"))</f>
@@ -2908,7 +2910,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="17">
         <f>AVERAGE(I12:I17)</f>
-        <v>73.333333333333329</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="J18" s="14">
         <f>COUNTIF(J12:J17,"완료")</f>
@@ -2968,31 +2970,29 @@
     <row r="21" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="148"/>
       <c r="C21" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="11"/>
       <c r="F21" s="7">
-        <v>44470</v>
+        <v>44488</v>
       </c>
       <c r="G21" s="7">
-        <v>44481</v>
-      </c>
-      <c r="H21" s="7">
-        <v>44480</v>
-      </c>
+        <v>44512</v>
+      </c>
+      <c r="H21" s="7"/>
       <c r="I21" s="18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4" t="str">
         <f>IF(I21=100,"완료",IF(I21=0,"-","진행중"))</f>
-        <v>완료</v>
+        <v>-</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="148"/>
       <c r="C22" s="8" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="11"/>
@@ -3000,43 +3000,45 @@
         <v>44470</v>
       </c>
       <c r="G22" s="7">
+        <v>44481</v>
+      </c>
+      <c r="H22" s="7">
+        <v>44480</v>
+      </c>
+      <c r="I22" s="18">
+        <v>100</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <f>IF(I22=100,"완료",IF(I22=0,"-","진행중"))</f>
+        <v>완료</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="148"/>
+      <c r="C23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="7">
+        <v>44470</v>
+      </c>
+      <c r="G23" s="7">
         <v>44512</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="18">
+      <c r="H23" s="7"/>
+      <c r="I23" s="18">
         <v>0</v>
       </c>
-      <c r="J22" s="4" t="str">
+      <c r="J23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="148"/>
-      <c r="C23" s="27" t="s">
+    <row r="24" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="148"/>
+      <c r="C24" s="27" t="s">
         <v>18</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="7">
-        <v>44470</v>
-      </c>
-      <c r="G23" s="7">
-        <v>44512</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="47">
-        <v>0</v>
-      </c>
-      <c r="J23" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="149"/>
-      <c r="C24" s="27" t="s">
-        <v>57</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="13"/>
@@ -3050,59 +3052,59 @@
       <c r="I24" s="47">
         <v>0</v>
       </c>
-      <c r="J24" s="62" t="str">
-        <f t="shared" ref="J24" si="3">IF(I24=100,"완료",IF(I24=0,"-","진행중"))</f>
+      <c r="J24" s="48" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="25" spans="2:10" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="90">
-        <f>AVERAGE(I19:I24)</f>
-        <v>50</v>
-      </c>
-      <c r="J25" s="91">
-        <f>COUNTIF(J19:J24,"완료")</f>
+    <row r="25" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="149"/>
+      <c r="C25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="7">
+        <v>44470</v>
+      </c>
+      <c r="G25" s="7">
+        <v>44512</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="47">
+        <v>5</v>
+      </c>
+      <c r="J25" s="62" t="str">
+        <f t="shared" ref="J25" si="3">IF(I25=100,"완료",IF(I25=0,"-","진행중"))</f>
+        <v>진행중</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="19"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="90">
+        <f>AVERAGE(I19:I25)</f>
+        <v>43.571428571428569</v>
+      </c>
+      <c r="J26" s="91">
+        <f>COUNTIF(J19:J25,"완료")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="143" t="s">
+    <row r="27" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="99" t="s">
+      <c r="C27" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102">
-        <v>44478</v>
-      </c>
-      <c r="G26" s="102">
-        <v>44517</v>
-      </c>
-      <c r="H26" s="103"/>
-      <c r="I26" s="107">
-        <v>0</v>
-      </c>
-      <c r="J26" s="106" t="str">
-        <f>IF(I26=100,"완료",IF(I26=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="144"/>
-      <c r="C27" s="99" t="s">
-        <v>104</v>
-      </c>
       <c r="D27" s="100"/>
-      <c r="E27" s="104"/>
+      <c r="E27" s="101"/>
       <c r="F27" s="102">
         <v>44478</v>
       </c>
@@ -3111,17 +3113,17 @@
       </c>
       <c r="H27" s="103"/>
       <c r="I27" s="107">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J27" s="106" t="str">
         <f>IF(I27=100,"완료",IF(I27=0,"-","진행중"))</f>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="144"/>
       <c r="C28" s="99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="100"/>
       <c r="E28" s="104"/>
@@ -3141,12 +3143,18 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="145"/>
-      <c r="C29" s="99"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="99" t="s">
+        <v>105</v>
+      </c>
       <c r="D29" s="100"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="102">
+        <v>44478</v>
+      </c>
+      <c r="G29" s="102">
+        <v>44517</v>
+      </c>
       <c r="H29" s="103"/>
       <c r="I29" s="107">
         <v>0</v>
@@ -3156,51 +3164,45 @@
         <v>-</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="84"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="97">
-        <f>AVERAGE(I26:I29)</f>
+    <row r="30" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="145"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="107">
         <v>0</v>
       </c>
-      <c r="J30" s="98">
-        <f>COUNTIF(J26:J29,"완료")</f>
+      <c r="J30" s="106" t="str">
+        <f>IF(I30=100,"완료",IF(I30=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="84"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="97">
+        <f>AVERAGE(I27:I30)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J31" s="98">
+        <f>COUNTIF(J27:J30,"완료")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="143" t="s">
+    <row r="32" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="7">
-        <v>44501</v>
-      </c>
-      <c r="G31" s="7">
-        <v>44512</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="18">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4" t="str">
-        <f t="shared" ref="J31:J34" si="4">IF(I31=100,"완료",IF(I31=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="148"/>
-      <c r="C32" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="11"/>
@@ -3215,28 +3217,34 @@
         <v>0</v>
       </c>
       <c r="J32" s="4" t="str">
+        <f t="shared" ref="J32:J35" si="4">IF(I32=100,"완료",IF(I32=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="148"/>
+      <c r="C33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="7">
+        <v>44501</v>
+      </c>
+      <c r="G33" s="7">
+        <v>44512</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="18">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="148"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="47">
-        <v>0</v>
-      </c>
-      <c r="J33" s="48" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-    </row>
     <row r="34" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="149"/>
+      <c r="B34" s="148"/>
       <c r="C34" s="27"/>
       <c r="D34" s="9"/>
       <c r="E34" s="13"/>
@@ -3246,78 +3254,72 @@
       <c r="I34" s="47">
         <v>0</v>
       </c>
-      <c r="J34" s="62" t="str">
+      <c r="J34" s="48" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="17">
-        <f>AVERAGE(I31:I34)</f>
+    <row r="35" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="149"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="47">
         <v>0</v>
       </c>
-      <c r="J35" s="14">
-        <f>COUNTIF(J31:J34,"완료")</f>
+      <c r="J35" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="17">
+        <f>AVERAGE(I32:I35)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="154" t="s">
+      <c r="J36" s="14">
+        <f>COUNTIF(J32:J35,"완료")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="7">
-        <v>44481</v>
-      </c>
-      <c r="G36" s="7">
-        <v>44505</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="41">
-        <v>0</v>
-      </c>
-      <c r="J36" s="42" t="str">
-        <f t="shared" ref="J36:J49" si="5">IF(I36=100,"완료",IF(I36=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="154"/>
-      <c r="C37" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="11"/>
       <c r="F37" s="7">
-        <v>44459</v>
+        <v>44481</v>
       </c>
       <c r="G37" s="7">
-        <v>44489</v>
+        <v>44505</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J37" s="42" t="str">
-        <f t="shared" si="5"/>
-        <v>진행중</v>
+        <f t="shared" ref="J37:J50" si="5">IF(I37=100,"완료",IF(I37=0,"-","진행중"))</f>
+        <v>-</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="154"/>
       <c r="C38" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="11"/>
@@ -3329,17 +3331,17 @@
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J38" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="154"/>
       <c r="C39" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="11"/>
@@ -3351,84 +3353,84 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J39" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>진행중</v>
+        <v>-</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="154"/>
       <c r="C40" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="40"/>
+      <c r="F40" s="7">
+        <v>44459</v>
+      </c>
+      <c r="G40" s="7">
+        <v>44489</v>
+      </c>
+      <c r="H40" s="7"/>
       <c r="I40" s="41">
+        <v>50</v>
+      </c>
+      <c r="J40" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>진행중</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="154"/>
+      <c r="C41" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="41">
         <v>0</v>
       </c>
-      <c r="J40" s="61" t="str">
+      <c r="J41" s="61" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="154"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="7">
-        <v>44459</v>
-      </c>
-      <c r="G41" s="7">
-        <v>44489</v>
-      </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41">
-        <v>50</v>
-      </c>
-      <c r="J41" s="61" t="str">
-        <f t="shared" si="5"/>
-        <v>진행중</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="154"/>
       <c r="C42" s="8"/>
       <c r="D42" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="7">
-        <v>44490</v>
+        <v>44459</v>
       </c>
       <c r="G42" s="7">
-        <v>44517</v>
+        <v>44489</v>
       </c>
       <c r="H42" s="40"/>
       <c r="I42" s="41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J42" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="154"/>
-      <c r="C43" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="39"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="E43" s="11"/>
       <c r="F43" s="7">
-        <v>44513</v>
+        <v>44490</v>
       </c>
       <c r="G43" s="7">
         <v>44517</v>
@@ -3445,12 +3447,16 @@
     <row r="44" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="154"/>
       <c r="C44" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D44" s="39"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="F44" s="7">
+        <v>44513</v>
+      </c>
+      <c r="G44" s="7">
+        <v>44517</v>
+      </c>
       <c r="H44" s="40"/>
       <c r="I44" s="41">
         <v>0</v>
@@ -3460,33 +3466,29 @@
         <v>-</v>
       </c>
     </row>
-    <row r="45" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="154"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="39" t="s">
-        <v>51</v>
-      </c>
+      <c r="C45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="39"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="7">
-        <v>44490</v>
-      </c>
-      <c r="G45" s="7">
-        <v>44517</v>
-      </c>
-      <c r="H45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="41">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J45" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>진행중</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="154"/>
       <c r="C46" s="8"/>
       <c r="D46" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="7">
@@ -3497,20 +3499,26 @@
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="41">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J46" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="154"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="39"/>
+      <c r="D47" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="E47" s="11"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="F47" s="7">
+        <v>44490</v>
+      </c>
+      <c r="G47" s="7">
+        <v>44517</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="41">
         <v>0</v>
@@ -3543,7 +3551,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="49"/>
+      <c r="H49" s="7"/>
       <c r="I49" s="41">
         <v>0</v>
       </c>
@@ -3552,136 +3560,130 @@
         <v>-</v>
       </c>
     </row>
-    <row r="50" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="17">
-        <f>AVERAGE(I36:I49)</f>
+    <row r="50" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="154"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="41">
+        <v>0</v>
+      </c>
+      <c r="J50" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="17">
+        <f>AVERAGE(I37:I50)</f>
         <v>10.714285714285714</v>
       </c>
-      <c r="J50" s="14">
-        <f>COUNTIF(J36:J49,"완료")</f>
+      <c r="J51" s="14">
+        <f>COUNTIF(J37:J50,"완료")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="143" t="s">
+    <row r="52" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="7">
-        <v>44490</v>
-      </c>
-      <c r="G51" s="7">
-        <v>44515</v>
-      </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="18">
-        <v>40</v>
-      </c>
-      <c r="J51" s="4" t="str">
-        <f>IF(I51=100,"완료",IF(I51=0,"-","진행중"))</f>
-        <v>진행중</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="148"/>
-      <c r="C52" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="39"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="11"/>
       <c r="F52" s="7">
-        <v>44516</v>
+        <v>44490</v>
       </c>
       <c r="G52" s="7">
-        <v>44530</v>
+        <v>44515</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="18">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="J52" s="4" t="str">
+        <f>IF(I52=100,"완료",IF(I52=0,"-","진행중"))</f>
+        <v>진행중</v>
+      </c>
     </row>
     <row r="53" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="148"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="9"/>
+      <c r="C53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="39"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="F53" s="7">
+        <v>44516</v>
+      </c>
+      <c r="G53" s="7">
+        <v>44530</v>
+      </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="18"/>
+      <c r="I53" s="18">
+        <v>0</v>
+      </c>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="149"/>
+    <row r="54" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="148"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="39"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="11"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="18"/>
-      <c r="J54" s="61" t="str">
-        <f>IF(I54=100,"완료",IF(I54=0,"-","진행중"))</f>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="149"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="61" t="str">
+        <f>IF(I55=100,"완료",IF(I55=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="17">
-        <f>AVERAGE(I51:I54)</f>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="17">
+        <f>AVERAGE(I52:I55)</f>
         <v>20</v>
       </c>
-      <c r="J55" s="14">
-        <f>COUNTIF(J51:J54,"완료")</f>
+      <c r="J56" s="14">
+        <f>COUNTIF(J52:J55,"완료")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="143" t="s">
+    <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="7">
-        <v>44518</v>
-      </c>
-      <c r="G56" s="7">
-        <v>44521</v>
-      </c>
-      <c r="H56" s="40"/>
-      <c r="I56" s="41">
-        <v>0</v>
-      </c>
-      <c r="J56" s="61" t="str">
-        <f>IF(I56=100,"완료",IF(I56=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="148"/>
-      <c r="C57" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="11"/>
@@ -3703,7 +3705,7 @@
     <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="148"/>
       <c r="C58" s="5" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="11"/>
@@ -3723,17 +3725,17 @@
       </c>
     </row>
     <row r="59" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="149"/>
+      <c r="B59" s="148"/>
       <c r="C59" s="5" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="11"/>
       <c r="F59" s="7">
-        <v>44522</v>
+        <v>44518</v>
       </c>
       <c r="G59" s="7">
-        <v>44532</v>
+        <v>44521</v>
       </c>
       <c r="H59" s="40"/>
       <c r="I59" s="41">
@@ -3744,38 +3746,60 @@
         <v>-</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="17">
-        <f>AVERAGE(I56:I59)</f>
+    <row r="60" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="149"/>
+      <c r="C60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="7">
+        <v>44522</v>
+      </c>
+      <c r="G60" s="7">
+        <v>44532</v>
+      </c>
+      <c r="H60" s="40"/>
+      <c r="I60" s="41">
         <v>0</v>
       </c>
-      <c r="J60" s="14">
-        <f>COUNTIF(J56:J59,"완료")</f>
+      <c r="J60" s="61" t="str">
+        <f>IF(I60=100,"완료",IF(I60=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="17">
+        <f>AVERAGE(I57:I60)</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="14">
+        <f>COUNTIF(J57:J60,"완료")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B27:B30"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B52:B55"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B3:D5"/>
-    <mergeCell ref="B36:B49"/>
+    <mergeCell ref="B37:B50"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B19:B25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J6:J9">
@@ -3783,27 +3807,27 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J16 J19:J23">
+  <conditionalFormatting sqref="J12:J16 J19:J24">
     <cfRule type="cellIs" dxfId="15" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51:J53">
+  <conditionalFormatting sqref="J52:J54">
     <cfRule type="cellIs" dxfId="14" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
+  <conditionalFormatting sqref="J55">
     <cfRule type="cellIs" dxfId="13" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
+  <conditionalFormatting sqref="J57">
     <cfRule type="cellIs" dxfId="12" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57:J59">
+  <conditionalFormatting sqref="J58:J60">
     <cfRule type="cellIs" dxfId="11" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3818,32 +3842,32 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
+  <conditionalFormatting sqref="J25">
     <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36:J44">
+  <conditionalFormatting sqref="J37:J45">
     <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
+  <conditionalFormatting sqref="J46">
     <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
+  <conditionalFormatting sqref="J47">
     <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="J48">
     <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J49">
+  <conditionalFormatting sqref="J49:J50">
     <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3853,12 +3877,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="J35">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:J33">
+  <conditionalFormatting sqref="J32:J34">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3866,7 +3890,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J55" formula="1"/>
+    <ignoredError sqref="J56" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4813,12 +4837,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -4826,6 +4844,12 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K3:K5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
+++ b/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\WBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhj32\Desktop\Contests_Capston\Git_ContentsIT_Capston_Design\docs\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8505C895-4EAB-40B2-8761-5B3FBFE0E1DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C120E8AC-5CB1-4984-B452-3BFA58334FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2205" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MILESTONE" sheetId="2" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1663,6 +1661,18 @@
     <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1754,18 +1764,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2203,72 +2201,72 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="108" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="110"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="114"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="120" t="s">
+      <c r="E3" s="130"/>
+      <c r="F3" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="117" t="s">
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120" t="s">
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="117" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="119"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="123"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="130"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="128"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
       <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
@@ -2319,16 +2317,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="111">
+      <c r="B5" s="115">
         <v>1</v>
       </c>
       <c r="C5" s="43">
         <v>44440</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="132"/>
+      <c r="E5" s="136"/>
       <c r="F5" s="35"/>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -2347,14 +2345,14 @@
       <c r="U5" s="34"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112"/>
-      <c r="C6" s="114" t="s">
+      <c r="B6" s="116"/>
+      <c r="C6" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="133" t="s">
+      <c r="D6" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="134"/>
+      <c r="E6" s="138"/>
       <c r="F6" s="38"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2373,12 +2371,12 @@
       <c r="U6" s="34"/>
     </row>
     <row r="7" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="112"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="135" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="136"/>
+      <c r="E7" s="140"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2397,12 +2395,12 @@
       <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="112"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="137" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="138"/>
+      <c r="E8" s="142"/>
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2420,12 +2418,12 @@
       <c r="U8" s="34"/>
     </row>
     <row r="9" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="112"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="139" t="s">
+      <c r="B9" s="116"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="140"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="35"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -2444,12 +2442,12 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="112"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="141" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="142"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="35"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -2468,14 +2466,14 @@
       <c r="U10" s="34"/>
     </row>
     <row r="11" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="113"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="44">
         <v>44532</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="124"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="63"/>
@@ -2495,6 +2493,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F2:U2"/>
@@ -2511,8 +2511,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2532,8 +2530,8 @@
   </sheetPr>
   <dimension ref="B1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2621,7 +2619,7 @@
       </c>
       <c r="I5" s="3">
         <f>AVERAGE(I11,I18,I26,I51,I56,I61,I36)</f>
-        <v>30.136054421768709</v>
+        <v>32.074829931972786</v>
       </c>
       <c r="J5" s="2">
         <f>COUNTIF(J6:J61,"완료")</f>
@@ -3309,11 +3307,11 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J37" s="42" t="str">
         <f t="shared" ref="J37:J50" si="5">IF(I37=100,"완료",IF(I37=0,"-","진행중"))</f>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3331,7 +3329,7 @@
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="41">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J38" s="42" t="str">
         <f t="shared" si="5"/>
@@ -3353,11 +3351,11 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J39" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3499,7 +3497,7 @@
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="41">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J46" s="61" t="str">
         <f t="shared" si="5"/>
@@ -3586,7 +3584,7 @@
       <c r="H51" s="23"/>
       <c r="I51" s="17">
         <f>AVERAGE(I37:I50)</f>
-        <v>10.714285714285714</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="J51" s="14">
         <f>COUNTIF(J37:J50,"완료")</f>
@@ -3610,7 +3608,7 @@
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="18">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J52" s="4" t="str">
         <f>IF(I52=100,"완료",IF(I52=0,"-","진행중"))</f>
@@ -3671,7 +3669,7 @@
       <c r="H56" s="23"/>
       <c r="I56" s="17">
         <f>AVERAGE(I52:I55)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J56" s="14">
         <f>COUNTIF(J52:J55,"완료")</f>
@@ -4837,6 +4835,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -4844,12 +4848,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K3:K5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
+++ b/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhj32\Desktop\Contests_Capston\Git_ContentsIT_Capston_Design\docs\WBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C120E8AC-5CB1-4984-B452-3BFA58334FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC112632-8FEA-478D-8E67-FB8B46308A2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2205" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MILESTONE" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1661,6 +1663,18 @@
     <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1752,18 +1766,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2201,72 +2203,72 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="112" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="114"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="118"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="124" t="s">
+      <c r="E3" s="134"/>
+      <c r="F3" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="121" t="s">
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124" t="s">
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="121" t="s">
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="123"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="127"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="134"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
@@ -2317,16 +2319,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="115">
+      <c r="B5" s="119">
         <v>1</v>
       </c>
       <c r="C5" s="43">
         <v>44440</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="136"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="35"/>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -2345,14 +2347,14 @@
       <c r="U5" s="34"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="116"/>
-      <c r="C6" s="118" t="s">
+      <c r="B6" s="120"/>
+      <c r="C6" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="138"/>
+      <c r="E6" s="142"/>
       <c r="F6" s="38"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2371,12 +2373,12 @@
       <c r="U6" s="34"/>
     </row>
     <row r="7" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="116"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="139" t="s">
+      <c r="B7" s="120"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="140"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2395,12 +2397,12 @@
       <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="116"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="141" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="142"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2418,12 +2420,12 @@
       <c r="U8" s="34"/>
     </row>
     <row r="9" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="116"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="108" t="s">
+      <c r="B9" s="120"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="109"/>
+      <c r="E9" s="113"/>
       <c r="F9" s="35"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -2442,12 +2444,12 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="116"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="110" t="s">
+      <c r="B10" s="120"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="111"/>
+      <c r="E10" s="115"/>
       <c r="F10" s="35"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -2466,14 +2468,14 @@
       <c r="U10" s="34"/>
     </row>
     <row r="11" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="117"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="44">
         <v>44532</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="128"/>
+      <c r="E11" s="132"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="63"/>
@@ -2493,6 +2495,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2509,8 +2513,6 @@
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2530,8 +2532,8 @@
   </sheetPr>
   <dimension ref="B1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2619,7 +2621,7 @@
       </c>
       <c r="I5" s="3">
         <f>AVERAGE(I11,I18,I26,I51,I56,I61,I36)</f>
-        <v>32.074829931972786</v>
+        <v>36.632653061224495</v>
       </c>
       <c r="J5" s="2">
         <f>COUNTIF(J6:J61,"완료")</f>
@@ -2864,12 +2866,10 @@
       <c r="F16" s="7">
         <v>44445</v>
       </c>
-      <c r="G16" s="7">
-        <v>44463</v>
-      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="41">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J16" s="42" t="str">
         <f>IF(I16=100,"완료",IF(I16=0,"-","진행중"))</f>
@@ -2908,7 +2908,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="17">
         <f>AVERAGE(I12:I17)</f>
-        <v>76.666666666666671</v>
+        <v>77.5</v>
       </c>
       <c r="J18" s="14">
         <f>COUNTIF(J12:J17,"완료")</f>
@@ -2980,11 +2980,11 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J21" s="4" t="str">
         <f>IF(I21=100,"완료",IF(I21=0,"-","진행중"))</f>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3026,11 +3026,11 @@
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="18">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="47">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J25" s="62" t="str">
         <f t="shared" ref="J25" si="3">IF(I25=100,"완료",IF(I25=0,"-","진행중"))</f>
@@ -3087,7 +3087,7 @@
       <c r="H26" s="89"/>
       <c r="I26" s="90">
         <f>AVERAGE(I19:I25)</f>
-        <v>43.571428571428569</v>
+        <v>62.142857142857146</v>
       </c>
       <c r="J26" s="91">
         <f>COUNTIF(J19:J25,"완료")</f>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H27" s="103"/>
       <c r="I27" s="107">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J27" s="106" t="str">
         <f>IF(I27=100,"완료",IF(I27=0,"-","진행중"))</f>
@@ -3188,7 +3188,7 @@
       <c r="H31" s="96"/>
       <c r="I31" s="97">
         <f>AVERAGE(I27:I30)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.125</v>
       </c>
       <c r="J31" s="98">
         <f>COUNTIF(J27:J30,"완료")</f>
@@ -3212,11 +3212,11 @@
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J32" s="4" t="str">
         <f t="shared" ref="J32:J35" si="4">IF(I32=100,"완료",IF(I32=0,"-","진행중"))</f>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3283,7 +3283,7 @@
       <c r="H36" s="23"/>
       <c r="I36" s="17">
         <f>AVERAGE(I32:I35)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="J36" s="14">
         <f>COUNTIF(J32:J35,"완료")</f>
@@ -4835,12 +4835,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -4848,6 +4842,12 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K3:K5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
+++ b/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\WBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhj32\Desktop\Contests_Capston\Git_ContentsIT_Capston_Design\docs\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC112632-8FEA-478D-8E67-FB8B46308A2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168C820F-A270-4244-844C-6743136BA57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2205" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MILESTONE" sheetId="2" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1663,6 +1661,18 @@
     <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1754,18 +1764,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2203,72 +2201,72 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="116" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="118"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="122"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="134"/>
-      <c r="F3" s="128" t="s">
+      <c r="E3" s="138"/>
+      <c r="F3" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="125" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128" t="s">
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="125" t="s">
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="127"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="131"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="138"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="136"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
       <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
@@ -2319,16 +2317,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="119">
+      <c r="B5" s="123">
         <v>1</v>
       </c>
       <c r="C5" s="43">
         <v>44440</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="140"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="35"/>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -2347,14 +2345,14 @@
       <c r="U5" s="34"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="120"/>
-      <c r="C6" s="122" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="142"/>
+      <c r="E6" s="111"/>
       <c r="F6" s="38"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2373,12 +2371,12 @@
       <c r="U6" s="34"/>
     </row>
     <row r="7" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="120"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="108" t="s">
+      <c r="B7" s="124"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="109"/>
+      <c r="E7" s="113"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2397,12 +2395,12 @@
       <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="120"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="110" t="s">
+      <c r="B8" s="124"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="111"/>
+      <c r="E8" s="115"/>
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2420,12 +2418,12 @@
       <c r="U8" s="34"/>
     </row>
     <row r="9" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="120"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="112" t="s">
+      <c r="B9" s="124"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="113"/>
+      <c r="E9" s="117"/>
       <c r="F9" s="35"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -2444,12 +2442,12 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="120"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="114" t="s">
+      <c r="B10" s="124"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="115"/>
+      <c r="E10" s="119"/>
       <c r="F10" s="35"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -2468,14 +2466,14 @@
       <c r="U10" s="34"/>
     </row>
     <row r="11" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="121"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="44">
         <v>44532</v>
       </c>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="132"/>
+      <c r="E11" s="136"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="63"/>
@@ -2495,11 +2493,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="B2:E2"/>
@@ -2513,6 +2506,11 @@
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2532,8 +2530,8 @@
   </sheetPr>
   <dimension ref="B1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2621,7 +2619,7 @@
       </c>
       <c r="I5" s="3">
         <f>AVERAGE(I11,I18,I26,I51,I56,I61,I36)</f>
-        <v>36.632653061224495</v>
+        <v>36.836734693877553</v>
       </c>
       <c r="J5" s="2">
         <f>COUNTIF(J6:J61,"완료")</f>
@@ -3307,7 +3305,7 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="41">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J37" s="42" t="str">
         <f t="shared" ref="J37:J50" si="5">IF(I37=100,"완료",IF(I37=0,"-","진행중"))</f>
@@ -3413,7 +3411,7 @@
       </c>
       <c r="H42" s="40"/>
       <c r="I42" s="41">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J42" s="61" t="str">
         <f t="shared" si="5"/>
@@ -3584,7 +3582,7 @@
       <c r="H51" s="23"/>
       <c r="I51" s="17">
         <f>AVERAGE(I37:I50)</f>
-        <v>14.285714285714286</v>
+        <v>15.714285714285714</v>
       </c>
       <c r="J51" s="14">
         <f>COUNTIF(J37:J50,"완료")</f>
@@ -4835,6 +4833,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -4842,12 +4846,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K3:K5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
+++ b/docs/WBS/20210910_WBS_Team_BlueBird_Ver.1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhj32\Desktop\Contests_Capston\Git_ContentsIT_Capston_Design\docs\WBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168C820F-A270-4244-844C-6743136BA57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021BCBA1-5C67-44C4-ABAB-168EF8C1DB0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2205" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MILESTONE" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2_WBS'!$B$3:$J$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2_WBS'!$B$3:$J$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MILESTONE!$A$1:$V$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -152,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
   <si>
     <t>END</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -606,6 +608,14 @@
   </si>
   <si>
     <t>캐릭터 스탠딩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시연동영상</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1661,36 +1671,6 @@
     <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1764,6 +1744,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2201,72 +2211,72 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="120" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="122"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="112"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="132" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="129" t="s">
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132" t="s">
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="129" t="s">
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="131"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="121"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="142"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="140"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
@@ -2317,16 +2327,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="123">
+      <c r="B5" s="113">
         <v>1</v>
       </c>
       <c r="C5" s="43">
         <v>44440</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="109"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="35"/>
       <c r="G5" s="52"/>
       <c r="H5" s="53"/>
@@ -2345,14 +2355,14 @@
       <c r="U5" s="34"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="124"/>
-      <c r="C6" s="126" t="s">
+      <c r="B6" s="114"/>
+      <c r="C6" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="111"/>
+      <c r="E6" s="136"/>
       <c r="F6" s="38"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -2371,12 +2381,12 @@
       <c r="U6" s="34"/>
     </row>
     <row r="7" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="124"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="112" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="113"/>
+      <c r="E7" s="138"/>
       <c r="F7" s="33"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2395,12 +2405,12 @@
       <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="124"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="114" t="s">
+      <c r="B8" s="114"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="115"/>
+      <c r="E8" s="140"/>
       <c r="F8" s="33"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2418,12 +2428,12 @@
       <c r="U8" s="34"/>
     </row>
     <row r="9" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="116" t="s">
+      <c r="B9" s="114"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="117"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="35"/>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -2442,12 +2452,12 @@
       <c r="U9" s="34"/>
     </row>
     <row r="10" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="124"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="118" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="119"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="35"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -2466,14 +2476,14 @@
       <c r="U10" s="34"/>
     </row>
     <row r="11" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="125"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="44">
         <v>44532</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="136"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="63"/>
@@ -2493,6 +2503,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="B2:E2"/>
@@ -2509,8 +2521,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2528,10 +2538,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L61"/>
+  <dimension ref="B1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2618,11 +2628,11 @@
         <v>4</v>
       </c>
       <c r="I5" s="3">
-        <f>AVERAGE(I11,I18,I26,I51,I56,I61,I36)</f>
-        <v>36.836734693877553</v>
+        <f>AVERAGE(I12,I19,I27,I52,I57,I62,I37)</f>
+        <v>35.85034013605442</v>
       </c>
       <c r="J5" s="2">
-        <f>COUNTIF(J6:J61,"완료")</f>
+        <f>COUNTIF(J6:J62,"완료")</f>
         <v>10</v>
       </c>
       <c r="L5" s="30"/>
@@ -2696,7 +2706,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="42" t="str">
-        <f t="shared" ref="J8:J24" si="0">IF(I8=100,"완료",IF(I8=0,"-","진행중"))</f>
+        <f t="shared" ref="J8:J25" si="0">IF(I8=100,"완료",IF(I8=0,"-","진행중"))</f>
         <v>완료</v>
       </c>
       <c r="L8" s="30"/>
@@ -2724,68 +2734,72 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="149"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="7">
+        <v>44522</v>
+      </c>
+      <c r="G10" s="7">
+        <v>44532</v>
+      </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="41">
+      <c r="I10" s="18">
         <v>0</v>
       </c>
-      <c r="J10" s="42" t="str">
-        <f t="shared" ref="J10" si="1">IF(I10=100,"완료",IF(I10=0,"-","진행중"))</f>
+      <c r="J10" s="4" t="str">
+        <f>IF(I10=100,"완료",IF(I10=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="2:12" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="17">
-        <f>AVERAGE(I6:I10)</f>
-        <v>60</v>
-      </c>
-      <c r="J11" s="14">
-        <f>COUNTIF(J6:J10,"완료")</f>
+    <row r="11" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="149"/>
+      <c r="C11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="7">
+        <v>44522</v>
+      </c>
+      <c r="G11" s="7">
+        <v>44535</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="41">
+        <v>0</v>
+      </c>
+      <c r="J11" s="42" t="str">
+        <f t="shared" ref="J11" si="1">IF(I11=100,"완료",IF(I11=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="17">
+        <f>AVERAGE(I6:I11)</f>
+        <v>50</v>
+      </c>
+      <c r="J12" s="14">
+        <f>COUNTIF(J6:J11,"완료")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="143" t="s">
+    <row r="13" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C13" s="27" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="7">
-        <v>44440</v>
-      </c>
-      <c r="G12" s="7">
-        <v>44454</v>
-      </c>
-      <c r="H12" s="7">
-        <v>44454</v>
-      </c>
-      <c r="I12" s="18">
-        <v>100</v>
-      </c>
-      <c r="J12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="148"/>
-      <c r="C13" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="11"/>
@@ -2793,10 +2807,10 @@
         <v>44440</v>
       </c>
       <c r="G13" s="7">
-        <v>44458</v>
+        <v>44454</v>
       </c>
       <c r="H13" s="7">
-        <v>44448</v>
+        <v>44454</v>
       </c>
       <c r="I13" s="18">
         <v>100</v>
@@ -2809,23 +2823,23 @@
     <row r="14" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="148"/>
       <c r="C14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11"/>
       <c r="F14" s="7">
-        <v>44445</v>
+        <v>44440</v>
       </c>
       <c r="G14" s="7">
         <v>44458</v>
       </c>
       <c r="H14" s="7">
-        <v>44454</v>
-      </c>
-      <c r="I14" s="41">
+        <v>44448</v>
+      </c>
+      <c r="I14" s="18">
         <v>100</v>
       </c>
-      <c r="J14" s="42" t="str">
+      <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
@@ -2833,186 +2847,186 @@
     <row r="15" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="148"/>
       <c r="C15" s="8" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11"/>
       <c r="F15" s="7">
-        <v>44459</v>
+        <v>44445</v>
       </c>
       <c r="G15" s="7">
-        <v>44469</v>
+        <v>44458</v>
       </c>
       <c r="H15" s="7">
-        <v>44475</v>
+        <v>44454</v>
       </c>
       <c r="I15" s="41">
         <v>100</v>
       </c>
       <c r="J15" s="42" t="str">
-        <f>IF(I15=100,"완료",IF(I15=0,"-","진행중"))</f>
+        <f t="shared" si="0"/>
         <v>완료</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="148"/>
       <c r="C16" s="8" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="11"/>
       <c r="F16" s="7">
-        <v>44445</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+        <v>44459</v>
+      </c>
+      <c r="G16" s="7">
+        <v>44469</v>
+      </c>
+      <c r="H16" s="7">
+        <v>44475</v>
+      </c>
       <c r="I16" s="41">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="J16" s="42" t="str">
         <f>IF(I16=100,"완료",IF(I16=0,"-","진행중"))</f>
-        <v>진행중</v>
+        <v>완료</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="149"/>
-      <c r="C17" s="27" t="s">
-        <v>109</v>
+      <c r="B17" s="148"/>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="11"/>
       <c r="F17" s="7">
+        <v>44445</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="41">
+        <v>55</v>
+      </c>
+      <c r="J17" s="42" t="str">
+        <f>IF(I17=100,"완료",IF(I17=0,"-","진행중"))</f>
+        <v>진행중</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="149"/>
+      <c r="C18" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7">
         <v>44454</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="7">
         <v>44532</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="18">
+      <c r="H18" s="7"/>
+      <c r="I18" s="18">
         <v>20</v>
       </c>
-      <c r="J17" s="61" t="str">
-        <f t="shared" ref="J17" si="2">IF(I17=100,"완료",IF(I17=0,"-","진행중"))</f>
+      <c r="J18" s="61" t="str">
+        <f t="shared" ref="J18" si="2">IF(I18=100,"완료",IF(I18=0,"-","진행중"))</f>
         <v>진행중</v>
       </c>
     </row>
-    <row r="18" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="17">
-        <f>AVERAGE(I12:I17)</f>
-        <v>77.5</v>
-      </c>
-      <c r="J18" s="14">
-        <f>COUNTIF(J12:J17,"완료")</f>
+    <row r="19" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="17">
+        <f>AVERAGE(I13:I18)</f>
+        <v>79.166666666666671</v>
+      </c>
+      <c r="J19" s="14">
+        <f>COUNTIF(J13:J18,"완료")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="143" t="s">
+    <row r="20" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="7">
-        <v>44470</v>
-      </c>
-      <c r="G19" s="7">
-        <v>44481</v>
-      </c>
-      <c r="H19" s="7">
-        <v>44480</v>
-      </c>
-      <c r="I19" s="18">
-        <v>100</v>
-      </c>
-      <c r="J19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="148"/>
-      <c r="C20" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="11"/>
       <c r="F20" s="7">
+        <v>44470</v>
+      </c>
+      <c r="G20" s="7">
         <v>44481</v>
       </c>
-      <c r="G20" s="7">
-        <v>44486</v>
-      </c>
       <c r="H20" s="7">
-        <v>44486</v>
+        <v>44480</v>
       </c>
       <c r="I20" s="18">
         <v>100</v>
       </c>
       <c r="J20" s="4" t="str">
-        <f>IF(I20=100,"완료",IF(I20=0,"-","진행중"))</f>
+        <f t="shared" si="0"/>
         <v>완료</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="148"/>
       <c r="C21" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="11"/>
       <c r="F21" s="7">
-        <v>44488</v>
+        <v>44481</v>
       </c>
       <c r="G21" s="7">
-        <v>44512</v>
-      </c>
-      <c r="H21" s="7"/>
+        <v>44486</v>
+      </c>
+      <c r="H21" s="7">
+        <v>44486</v>
+      </c>
       <c r="I21" s="18">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J21" s="4" t="str">
         <f>IF(I21=100,"완료",IF(I21=0,"-","진행중"))</f>
-        <v>진행중</v>
+        <v>완료</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="148"/>
       <c r="C22" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="11"/>
       <c r="F22" s="7">
-        <v>44470</v>
+        <v>44488</v>
       </c>
       <c r="G22" s="7">
-        <v>44481</v>
-      </c>
-      <c r="H22" s="7">
-        <v>44480</v>
-      </c>
+        <v>44512</v>
+      </c>
+      <c r="H22" s="7"/>
       <c r="I22" s="18">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J22" s="4" t="str">
         <f>IF(I22=100,"완료",IF(I22=0,"-","진행중"))</f>
-        <v>완료</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="148"/>
       <c r="C23" s="8" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="11"/>
@@ -3020,43 +3034,45 @@
         <v>44470</v>
       </c>
       <c r="G23" s="7">
+        <v>44481</v>
+      </c>
+      <c r="H23" s="7">
+        <v>44480</v>
+      </c>
+      <c r="I23" s="18">
+        <v>100</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <f>IF(I23=100,"완료",IF(I23=0,"-","진행중"))</f>
+        <v>완료</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="148"/>
+      <c r="C24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="7">
+        <v>44470</v>
+      </c>
+      <c r="G24" s="7">
         <v>44512</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="18">
+      <c r="H24" s="7"/>
+      <c r="I24" s="18">
         <v>40</v>
       </c>
-      <c r="J23" s="4" t="str">
+      <c r="J24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>진행중</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="148"/>
-      <c r="C24" s="27" t="s">
+    <row r="25" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="148"/>
+      <c r="C25" s="27" t="s">
         <v>18</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="7">
-        <v>44470</v>
-      </c>
-      <c r="G24" s="7">
-        <v>44512</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="47">
-        <v>0</v>
-      </c>
-      <c r="J24" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="149"/>
-      <c r="C25" s="27" t="s">
-        <v>57</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="13"/>
@@ -3068,80 +3084,82 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="47">
-        <v>15</v>
-      </c>
-      <c r="J25" s="62" t="str">
-        <f t="shared" ref="J25" si="3">IF(I25=100,"완료",IF(I25=0,"-","진행중"))</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="149"/>
+      <c r="C26" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="7">
+        <v>44470</v>
+      </c>
+      <c r="G26" s="7">
+        <v>44512</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="47">
+        <v>25</v>
+      </c>
+      <c r="J26" s="62" t="str">
+        <f t="shared" ref="J26" si="3">IF(I26=100,"완료",IF(I26=0,"-","진행중"))</f>
         <v>진행중</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="90">
-        <f>AVERAGE(I19:I25)</f>
-        <v>62.142857142857146</v>
-      </c>
-      <c r="J26" s="91">
-        <f>COUNTIF(J19:J25,"완료")</f>
+    <row r="27" spans="2:10" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="19"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="90">
+        <f>AVERAGE(I20:I26)</f>
+        <v>63.571428571428569</v>
+      </c>
+      <c r="J27" s="91">
+        <f>COUNTIF(J20:J26,"완료")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="143" t="s">
+    <row r="28" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="99" t="s">
+      <c r="C28" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="102">
-        <v>44478</v>
-      </c>
-      <c r="G27" s="102">
-        <v>44517</v>
-      </c>
-      <c r="H27" s="103"/>
-      <c r="I27" s="107">
-        <v>0.5</v>
-      </c>
-      <c r="J27" s="106" t="str">
-        <f>IF(I27=100,"완료",IF(I27=0,"-","진행중"))</f>
-        <v>진행중</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="144"/>
-      <c r="C28" s="99" t="s">
-        <v>104</v>
-      </c>
       <c r="D28" s="100"/>
-      <c r="E28" s="104"/>
+      <c r="E28" s="101"/>
       <c r="F28" s="102">
         <v>44478</v>
       </c>
       <c r="G28" s="102">
         <v>44517</v>
       </c>
-      <c r="H28" s="103"/>
+      <c r="H28" s="103">
+        <v>44508</v>
+      </c>
       <c r="I28" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="106" t="str">
         <f>IF(I28=100,"완료",IF(I28=0,"-","진행중"))</f>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="144"/>
       <c r="C29" s="99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="100"/>
       <c r="E29" s="104"/>
@@ -3161,12 +3179,18 @@
       </c>
     </row>
     <row r="30" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="145"/>
-      <c r="C30" s="99"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="99" t="s">
+        <v>105</v>
+      </c>
       <c r="D30" s="100"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="102">
+        <v>44478</v>
+      </c>
+      <c r="G30" s="102">
+        <v>44517</v>
+      </c>
       <c r="H30" s="103"/>
       <c r="I30" s="107">
         <v>0</v>
@@ -3176,51 +3200,45 @@
         <v>-</v>
       </c>
     </row>
-    <row r="31" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="84"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="97">
-        <f>AVERAGE(I27:I30)</f>
-        <v>0.125</v>
-      </c>
-      <c r="J31" s="98">
-        <f>COUNTIF(J27:J30,"완료")</f>
+    <row r="31" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="145"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="143" t="s">
+      <c r="J31" s="106" t="str">
+        <f>IF(I31=100,"완료",IF(I31=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="84"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="97">
+        <f>AVERAGE(I28:I31)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J32" s="98">
+        <f>COUNTIF(J28:J31,"완료")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="7">
-        <v>44501</v>
-      </c>
-      <c r="G32" s="7">
-        <v>44512</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="18">
-        <v>50</v>
-      </c>
-      <c r="J32" s="4" t="str">
-        <f t="shared" ref="J32:J35" si="4">IF(I32=100,"완료",IF(I32=0,"-","진행중"))</f>
-        <v>진행중</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="148"/>
-      <c r="C33" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="11"/>
@@ -3232,31 +3250,37 @@
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="18">
+        <v>50</v>
+      </c>
+      <c r="J33" s="4" t="str">
+        <f t="shared" ref="J33:J36" si="4">IF(I33=100,"완료",IF(I33=0,"-","진행중"))</f>
+        <v>진행중</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="148"/>
+      <c r="C34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="7">
+        <v>44501</v>
+      </c>
+      <c r="G34" s="7">
+        <v>44512</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="18">
         <v>0</v>
       </c>
-      <c r="J33" s="4" t="str">
+      <c r="J34" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="148"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="47">
-        <v>0</v>
-      </c>
-      <c r="J34" s="48" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-    </row>
     <row r="35" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="149"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="27"/>
       <c r="D35" s="9"/>
       <c r="E35" s="13"/>
@@ -3266,78 +3290,72 @@
       <c r="I35" s="47">
         <v>0</v>
       </c>
-      <c r="J35" s="62" t="str">
+      <c r="J35" s="48" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="17">
-        <f>AVERAGE(I32:I35)</f>
+    <row r="36" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="149"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="47">
+        <v>0</v>
+      </c>
+      <c r="J36" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="17">
+        <f>AVERAGE(I33:I36)</f>
         <v>12.5</v>
       </c>
-      <c r="J36" s="14">
-        <f>COUNTIF(J32:J35,"완료")</f>
+      <c r="J37" s="14">
+        <f>COUNTIF(J33:J36,"완료")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="154" t="s">
+    <row r="38" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="7">
-        <v>44481</v>
-      </c>
-      <c r="G37" s="7">
-        <v>44505</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="41">
-        <v>30</v>
-      </c>
-      <c r="J37" s="42" t="str">
-        <f t="shared" ref="J37:J50" si="5">IF(I37=100,"완료",IF(I37=0,"-","진행중"))</f>
-        <v>진행중</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="154"/>
-      <c r="C38" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="11"/>
       <c r="F38" s="7">
-        <v>44459</v>
+        <v>44481</v>
       </c>
       <c r="G38" s="7">
-        <v>44489</v>
+        <v>44505</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="41">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J38" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J38:J51" si="5">IF(I38=100,"완료",IF(I38=0,"-","진행중"))</f>
         <v>진행중</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="154"/>
       <c r="C39" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="11"/>
@@ -3349,7 +3367,7 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="41">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J39" s="42" t="str">
         <f t="shared" si="5"/>
@@ -3359,7 +3377,7 @@
     <row r="40" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="154"/>
       <c r="C40" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="11"/>
@@ -3371,7 +3389,7 @@
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="41">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J40" s="42" t="str">
         <f t="shared" si="5"/>
@@ -3381,74 +3399,74 @@
     <row r="41" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="154"/>
       <c r="C41" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="40"/>
+      <c r="F41" s="7">
+        <v>44459</v>
+      </c>
+      <c r="G41" s="7">
+        <v>44489</v>
+      </c>
+      <c r="H41" s="7"/>
       <c r="I41" s="41">
+        <v>50</v>
+      </c>
+      <c r="J41" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>진행중</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="154"/>
+      <c r="C42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="41">
         <v>0</v>
       </c>
-      <c r="J41" s="61" t="str">
+      <c r="J42" s="61" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="154"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="7">
-        <v>44459</v>
-      </c>
-      <c r="G42" s="7">
-        <v>44489</v>
-      </c>
-      <c r="H42" s="40"/>
-      <c r="I42" s="41">
-        <v>60</v>
-      </c>
-      <c r="J42" s="61" t="str">
-        <f t="shared" si="5"/>
-        <v>진행중</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="154"/>
       <c r="C43" s="8"/>
       <c r="D43" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="7">
-        <v>44490</v>
+        <v>44459</v>
       </c>
       <c r="G43" s="7">
-        <v>44517</v>
+        <v>44489</v>
       </c>
       <c r="H43" s="40"/>
       <c r="I43" s="41">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J43" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="154"/>
-      <c r="C44" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="39"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="E44" s="11"/>
       <c r="F44" s="7">
-        <v>44513</v>
+        <v>44490</v>
       </c>
       <c r="G44" s="7">
         <v>44517</v>
@@ -3465,12 +3483,16 @@
     <row r="45" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="154"/>
       <c r="C45" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D45" s="39"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="F45" s="7">
+        <v>44513</v>
+      </c>
+      <c r="G45" s="7">
+        <v>44517</v>
+      </c>
       <c r="H45" s="40"/>
       <c r="I45" s="41">
         <v>0</v>
@@ -3480,33 +3502,29 @@
         <v>-</v>
       </c>
     </row>
-    <row r="46" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="154"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="39" t="s">
-        <v>51</v>
-      </c>
+      <c r="C46" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="39"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="7">
-        <v>44490</v>
-      </c>
-      <c r="G46" s="7">
-        <v>44517</v>
-      </c>
-      <c r="H46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="41">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J46" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>진행중</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="154"/>
       <c r="C47" s="8"/>
       <c r="D47" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="7">
@@ -3517,20 +3535,26 @@
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="41">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J47" s="61" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>진행중</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="154"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="E48" s="11"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="F48" s="7">
+        <v>44490</v>
+      </c>
+      <c r="G48" s="7">
+        <v>44517</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="41">
         <v>0</v>
@@ -3563,7 +3587,7 @@
       <c r="E50" s="11"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="49"/>
+      <c r="H50" s="7"/>
       <c r="I50" s="41">
         <v>0</v>
       </c>
@@ -3572,136 +3596,130 @@
         <v>-</v>
       </c>
     </row>
-    <row r="51" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="17">
-        <f>AVERAGE(I37:I50)</f>
+    <row r="51" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="154"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="41">
+        <v>0</v>
+      </c>
+      <c r="J51" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="17">
+        <f>AVERAGE(I38:I51)</f>
         <v>15.714285714285714</v>
       </c>
-      <c r="J51" s="14">
-        <f>COUNTIF(J37:J50,"완료")</f>
+      <c r="J52" s="14">
+        <f>COUNTIF(J38:J51,"완료")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="143" t="s">
+    <row r="53" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="7">
-        <v>44490</v>
-      </c>
-      <c r="G52" s="7">
-        <v>44515</v>
-      </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="18">
-        <v>60</v>
-      </c>
-      <c r="J52" s="4" t="str">
-        <f>IF(I52=100,"완료",IF(I52=0,"-","진행중"))</f>
-        <v>진행중</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="148"/>
-      <c r="C53" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="39"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="11"/>
       <c r="F53" s="7">
-        <v>44516</v>
+        <v>44490</v>
       </c>
       <c r="G53" s="7">
-        <v>44530</v>
+        <v>44515</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="18">
-        <v>0</v>
-      </c>
-      <c r="J53" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="J53" s="4" t="str">
+        <f>IF(I53=100,"완료",IF(I53=0,"-","진행중"))</f>
+        <v>진행중</v>
+      </c>
     </row>
     <row r="54" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="148"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="9"/>
+      <c r="C54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="39"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="F54" s="7">
+        <v>44516</v>
+      </c>
+      <c r="G54" s="7">
+        <v>44530</v>
+      </c>
       <c r="H54" s="7"/>
-      <c r="I54" s="18"/>
+      <c r="I54" s="18">
+        <v>0</v>
+      </c>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="149"/>
+    <row r="55" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="148"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="39"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="11"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="18"/>
-      <c r="J55" s="61" t="str">
-        <f>IF(I55=100,"완료",IF(I55=0,"-","진행중"))</f>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="2:10" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="149"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="61" t="str">
+        <f>IF(I56=100,"완료",IF(I56=0,"-","진행중"))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="17">
-        <f>AVERAGE(I52:I55)</f>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="17">
+        <f>AVERAGE(I53:I56)</f>
         <v>30</v>
       </c>
-      <c r="J56" s="14">
-        <f>COUNTIF(J52:J55,"완료")</f>
+      <c r="J57" s="14">
+        <f>COUNTIF(J53:J56,"완료")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="143" t="s">
+    <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="7">
-        <v>44518</v>
-      </c>
-      <c r="G57" s="7">
-        <v>44521</v>
-      </c>
-      <c r="H57" s="40"/>
-      <c r="I57" s="41">
-        <v>0</v>
-      </c>
-      <c r="J57" s="61" t="str">
-        <f>IF(I57=100,"완료",IF(I57=0,"-","진행중"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="148"/>
-      <c r="C58" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="11"/>
@@ -3723,7 +3741,7 @@
     <row r="59" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="148"/>
       <c r="C59" s="5" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="11"/>
@@ -3743,17 +3761,17 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="149"/>
+      <c r="B60" s="148"/>
       <c r="C60" s="5" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="11"/>
       <c r="F60" s="7">
-        <v>44522</v>
+        <v>44518</v>
       </c>
       <c r="G60" s="7">
-        <v>44532</v>
+        <v>44521</v>
       </c>
       <c r="H60" s="40"/>
       <c r="I60" s="41">
@@ -3764,106 +3782,128 @@
         <v>-</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="17">
-        <f>AVERAGE(I57:I60)</f>
+    <row r="61" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="149"/>
+      <c r="C61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="7">
+        <v>44522</v>
+      </c>
+      <c r="G61" s="7">
+        <v>44532</v>
+      </c>
+      <c r="H61" s="40"/>
+      <c r="I61" s="41">
         <v>0</v>
       </c>
-      <c r="J61" s="14">
-        <f>COUNTIF(J57:J60,"완료")</f>
+      <c r="J61" s="61" t="str">
+        <f>IF(I61=100,"완료",IF(I61=0,"-","진행중"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="17">
+        <f>AVERAGE(I58:I61)</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="14">
+        <f>COUNTIF(J58:J61,"완료")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B28:B31"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B53:B56"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B3:D5"/>
-    <mergeCell ref="B37:B50"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B38:B51"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B20:B26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J6:J9">
+  <conditionalFormatting sqref="J6:J10">
     <cfRule type="cellIs" dxfId="16" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J16 J19:J24">
+  <conditionalFormatting sqref="J13:J17 J20:J25">
     <cfRule type="cellIs" dxfId="15" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52:J54">
+  <conditionalFormatting sqref="J53:J55">
     <cfRule type="cellIs" dxfId="14" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
+  <conditionalFormatting sqref="J56">
     <cfRule type="cellIs" dxfId="13" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
+  <conditionalFormatting sqref="J58">
     <cfRule type="cellIs" dxfId="12" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58:J60">
+  <conditionalFormatting sqref="J59:J61">
     <cfRule type="cellIs" dxfId="11" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" dxfId="10" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="J18">
     <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="J26">
     <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:J45">
+  <conditionalFormatting sqref="J38:J46">
     <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
+  <conditionalFormatting sqref="J47">
     <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="J48">
     <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
+  <conditionalFormatting sqref="J49">
     <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49:J50">
+  <conditionalFormatting sqref="J50:J51">
     <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3873,12 +3913,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
+  <conditionalFormatting sqref="J36">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J34">
+  <conditionalFormatting sqref="J33:J35">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3886,7 +3926,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J56" formula="1"/>
+    <ignoredError sqref="J57" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4833,12 +4873,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
@@ -4846,6 +4880,12 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K3:K5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
